--- a/InputData/indst/RoNEPtAPPpULA/Ratio of Nutr Eqiv Plant to Anim Products Prd per Unit Land Area.xlsx
+++ b/InputData/indst/RoNEPtAPPpULA/Ratio of Nutr Eqiv Plant to Anim Products Prd per Unit Land Area.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\indst\CoNEPPpCAPS (new)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\indst\CoNEPPpCAPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4008B3F7-A913-4A37-A7C0-628523426448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914942C6-6498-4405-B320-83F00443D146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3855" windowWidth="19950" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="1680" windowWidth="33540" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RedMeatPoultry_Prod-Full" sheetId="4" r:id="rId3"/>
-    <sheet name="CoNEPPpCAPS" sheetId="3" r:id="rId4"/>
+    <sheet name="RoNEPtAPPpULA" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="792">
   <si>
     <t>Source:</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Beef</t>
   </si>
   <si>
-    <t>calories of equivalent plant products per calorie animal products shifted</t>
-  </si>
-  <si>
     <t>The variable uses a study that reported the opportunity food loss from production</t>
   </si>
   <si>
@@ -2411,10 +2408,10 @@
     <t>Unit: dimensionless (ratio)</t>
   </si>
   <si>
-    <t>CoNEPPpCAPS Calories of Nutritionally Equivalent Plant Products per Calorie Animal Products Shifted</t>
-  </si>
-  <si>
-    <t>The EU EPS uses values from the US EPS.</t>
+    <t>Ratio of Nutritionally Equivalent Plant to Animal Products Produced per Unit Land Area</t>
+  </si>
+  <si>
+    <t>RoNEPtAPPpULA Ratio of Nutritionally Equivalent Plant to Animal Products Produced per Unit Land Area</t>
   </si>
 </sst>
 </file>
@@ -3047,25 +3044,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -3073,34 +3068,34 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3108,39 +3103,39 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3148,59 +3143,54 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -3217,17 +3207,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" customWidth="1"/>
-    <col min="4" max="5" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3245,7 +3237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -3265,9 +3257,9 @@
         <v>7.5940360087446352</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B3" s="6">
         <v>50</v>
@@ -3282,7 +3274,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -3299,7 +3291,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -3317,7 +3309,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -3335,9 +3327,9 @@
       <c r="E6" s="9"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B8">
         <f>SUM('RedMeatPoultry_Prod-Full'!B14:B25)/1000</f>
@@ -3345,25 +3337,25 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B9">
         <f>SUM('RedMeatPoultry_Prod-Full'!D14:D25)/1000</f>
         <v>27.637500000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B10">
         <f>SUM(B8:B9)</f>
         <v>54.792099999999998</v>
       </c>
       <c r="F10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -3380,20 +3372,20 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14" customWidth="1"/>
     <col min="2" max="4" width="8" style="14" customWidth="1"/>
-    <col min="5" max="5" width="2.73046875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="5.265625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="14" customWidth="1"/>
     <col min="7" max="17" width="8" style="14" customWidth="1"/>
     <col min="18" max="18" width="2" style="14" customWidth="1"/>
     <col min="19" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -3412,12 +3404,12 @@
       <c r="P1" s="27"/>
       <c r="Q1" s="27"/>
     </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -3425,74 +3417,74 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="34" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="B4" s="18">
         <v>17739</v>
@@ -3541,9 +3533,9 @@
         <v>69863.929999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="18">
         <v>17964.7</v>
@@ -3592,9 +3584,9 @@
         <v>69105.062999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="18">
         <v>2334.6</v>
@@ -3643,9 +3635,9 @@
         <v>8900.4770000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="18">
         <v>2421.1999999999998</v>
@@ -3694,9 +3686,9 @@
         <v>9067.1309999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="18">
         <v>2373.6</v>
@@ -3745,9 +3737,9 @@
         <v>9072.0689999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="18">
         <v>1865.1</v>
@@ -3796,9 +3788,9 @@
         <v>7748.3760000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="18">
         <v>1815.4</v>
@@ -3847,9 +3839,9 @@
         <v>7914.7629999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="18">
         <v>2410.8000000000002</v>
@@ -3898,9 +3890,9 @@
         <v>9379.1180000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="18">
         <v>2130.6999999999998</v>
@@ -3949,9 +3941,9 @@
         <v>8333.24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="18">
         <v>2387.6</v>
@@ -4000,9 +3992,9 @@
         <v>9448.7559999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="18">
         <v>2265.1</v>
@@ -4051,9 +4043,9 @@
         <v>8838.2810000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="18">
         <v>2296.9</v>
@@ -4102,9 +4094,9 @@
         <v>8657.1149999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="18">
         <v>2439.3000000000002</v>
@@ -4153,9 +4145,9 @@
         <v>9726.9660000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="18">
         <v>2188.6</v>
@@ -4204,9 +4196,9 @@
         <v>8602.1239999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="18">
         <v>2373.4</v>
@@ -4255,9 +4247,9 @@
         <v>9016.3310000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="18">
         <v>2360.6999999999998</v>
@@ -4306,9 +4298,9 @@
         <v>8970.2890000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="18">
         <v>2227.1</v>
@@ -4357,9 +4349,9 @@
         <v>8391.3189999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="18">
         <v>2328</v>
@@ -4408,9 +4400,9 @@
         <v>8905.9470000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="18">
         <v>2261.6999999999998</v>
@@ -4459,9 +4451,9 @@
         <v>8640.0529999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="18">
         <v>2117.1</v>
@@ -4510,9 +4502,9 @@
         <v>8334.8060000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="18">
         <v>1987.1</v>
@@ -4561,9 +4553,9 @@
         <v>7906.6469999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="18">
         <v>2309.6</v>
@@ -4612,9 +4604,9 @@
         <v>8939.6710000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="18">
         <v>2116</v>
@@ -4663,9 +4655,9 @@
         <v>8056.8959999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="18">
         <v>2315.1</v>
@@ -4714,9 +4706,9 @@
         <v>8648.8739999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="18">
         <v>2430.6</v>
@@ -4765,9 +4757,9 @@
         <v>9398.125</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="18">
         <v>2157.5</v>
@@ -4816,9 +4808,9 @@
         <v>8044.4129999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="18">
         <v>2429.6</v>
@@ -4867,9 +4859,9 @@
         <v>9196.8539999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="18">
         <v>2231.6</v>
@@ -4918,9 +4910,9 @@
         <v>8371.4889999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="18">
         <v>2300.9</v>
@@ -4969,9 +4961,9 @@
         <v>8329.1129999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="18">
         <v>2307</v>
@@ -5020,9 +5012,9 @@
         <v>8769.4519999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="18">
         <v>2117.6999999999998</v>
@@ -5071,9 +5063,9 @@
         <v>8230.7819999999992</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="18">
         <v>2203.5</v>
@@ -5122,9 +5114,9 @@
         <v>8505.527</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="18">
         <v>1983.9</v>
@@ -5173,9 +5165,9 @@
         <v>7786.9290000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="18">
         <v>2279</v>
@@ -5224,9 +5216,9 @@
         <v>8749.8330000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="18">
         <v>2148.4</v>
@@ -5275,9 +5267,9 @@
         <v>8203.5319999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="18">
         <v>2290.6</v>
@@ -5326,9 +5318,9 @@
         <v>8529.1380000000008</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="18">
         <v>2303</v>
@@ -5377,9 +5369,9 @@
         <v>8913.9419999999991</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="18">
         <v>2225.6</v>
@@ -5428,9 +5420,9 @@
         <v>8314.7880000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="18">
         <v>2402.1</v>
@@ -5479,9 +5471,9 @@
         <v>8956.8029999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="18">
         <v>2107.9</v>
@@ -5530,9 +5522,9 @@
         <v>7831.6589999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="18">
         <v>2280.3000000000002</v>
@@ -5581,9 +5573,9 @@
         <v>8439.3510000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="18">
         <v>2163.4</v>
@@ -5632,9 +5624,9 @@
         <v>8464.3700000000008</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="18">
         <v>1963.1</v>
@@ -5683,9 +5675,9 @@
         <v>7632.527</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="18">
         <v>2249.6999999999998</v>
@@ -5734,9 +5726,9 @@
         <v>8663.7440000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="18">
         <v>1933.9</v>
@@ -5785,9 +5777,9 @@
         <v>7562.0460000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="18">
         <v>2119.3000000000002</v>
@@ -5836,9 +5828,9 @@
         <v>8300.7019999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="18">
         <v>2173.3000000000002</v>
@@ -5887,9 +5879,9 @@
         <v>8207.4639999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="18">
         <v>2240.1999999999998</v>
@@ -5938,9 +5930,9 @@
         <v>8369.9660000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="18">
         <v>2211.1999999999998</v>
@@ -5989,9 +5981,9 @@
         <v>8372.4920000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" s="18">
         <v>2181.5</v>
@@ -6040,9 +6032,9 @@
         <v>8292.9930000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="18">
         <v>2265.8000000000002</v>
@@ -6091,9 +6083,9 @@
         <v>8631.98</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="18">
         <v>2024.2</v>
@@ -6142,9 +6134,9 @@
         <v>7610.3159999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="18">
         <v>2193</v>
@@ -6193,9 +6185,9 @@
         <v>8268.8019999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="18">
         <v>2030.2</v>
@@ -6244,9 +6236,9 @@
         <v>7982.692</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="18">
         <v>1964</v>
@@ -6295,9 +6287,9 @@
         <v>7787.9380000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="18">
         <v>2097.3000000000002</v>
@@ -6346,9 +6338,9 @@
         <v>8312.4719999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="18">
         <v>1886</v>
@@ -6397,9 +6389,9 @@
         <v>7631.777</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="18">
         <v>1954.2</v>
@@ -6448,9 +6440,9 @@
         <v>7804.1660000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="18">
         <v>2046.3</v>
@@ -6499,9 +6491,9 @@
         <v>8087.7539999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="18">
         <v>1936.1</v>
@@ -6550,9 +6542,9 @@
         <v>7654.1949999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="18">
         <v>2126.3000000000002</v>
@@ -6601,9 +6593,9 @@
         <v>8322.4459999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="18">
         <v>2086.6</v>
@@ -6652,9 +6644,9 @@
         <v>8095.9830000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="18">
         <v>1934.9</v>
@@ -6703,9 +6695,9 @@
         <v>7785.2809999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="18">
         <v>2046.8</v>
@@ -6754,9 +6746,9 @@
         <v>7975.9120000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="18">
         <v>2001.6</v>
@@ -6805,9 +6797,9 @@
         <v>7925.3720000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" s="18">
         <v>1925.5</v>
@@ -6856,9 +6848,9 @@
         <v>7503.2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="18">
         <v>1928.8</v>
@@ -6907,9 +6899,9 @@
         <v>7879.6890000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="18">
         <v>1933.3</v>
@@ -6958,9 +6950,9 @@
         <v>7973.6850000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="18">
         <v>1768.1</v>
@@ -7009,9 +7001,9 @@
         <v>7183.12</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="18">
         <v>1963.5</v>
@@ -7060,9 +7052,9 @@
         <v>7921.0910000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="18">
         <v>2000.2</v>
@@ -7111,9 +7103,9 @@
         <v>7977.076</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="18">
         <v>1849.5</v>
@@ -7162,9 +7154,9 @@
         <v>7190.0720000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="18">
         <v>2171.1</v>
@@ -7213,9 +7205,9 @@
         <v>8418.9089999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="18">
         <v>2068.4</v>
@@ -7264,9 +7256,9 @@
         <v>7775.5550000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="18">
         <v>2023.5</v>
@@ -7315,9 +7307,9 @@
         <v>7494.6289999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="18">
         <v>2087.4</v>
@@ -7366,9 +7358,9 @@
         <v>7756.6779999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="18">
         <v>2069</v>
@@ -7417,9 +7409,9 @@
         <v>7533.3440000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="18">
         <v>2071.6999999999998</v>
@@ -7468,9 +7460,9 @@
         <v>7645.549</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="18">
         <v>2043.1</v>
@@ -7519,9 +7511,9 @@
         <v>7677.3890000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" s="18">
         <v>1937</v>
@@ -7570,9 +7562,9 @@
         <v>7384.0129999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="18">
         <v>1788.4</v>
@@ -7621,9 +7613,9 @@
         <v>7101.1109999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="18">
         <v>2140.9</v>
@@ -7672,9 +7664,9 @@
         <v>7899.8220000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="18">
         <v>2047.3</v>
@@ -7723,9 +7715,9 @@
         <v>7663.1120000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="18">
         <v>2057.6</v>
@@ -7774,9 +7766,9 @@
         <v>7572.7719999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="18">
         <v>2318.1999999999998</v>
@@ -7825,9 +7817,9 @@
         <v>8511.8690000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="18">
         <v>2073.8000000000002</v>
@@ -7876,9 +7868,9 @@
         <v>7499.6210000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="18">
         <v>2241.1999999999998</v>
@@ -7927,9 +7919,9 @@
         <v>8002.8980000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="18">
         <v>2294.1</v>
@@ -7978,9 +7970,9 @@
         <v>7968.6689999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="18">
         <v>2157</v>
@@ -8029,9 +8021,9 @@
         <v>7345.0780000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="18">
         <v>2227.6</v>
@@ -8080,9 +8072,9 @@
         <v>7945.9250000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="18">
         <v>2128.6</v>
@@ -8131,9 +8123,9 @@
         <v>7806.2240000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="18">
         <v>2039.8</v>
@@ -8182,9 +8174,9 @@
         <v>7474.7669999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="18">
         <v>1873.4</v>
@@ -8233,9 +8225,9 @@
         <v>7019.6289999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="18">
         <v>2261.3000000000002</v>
@@ -8284,9 +8276,9 @@
         <v>8150.9920000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="18">
         <v>2020.1</v>
@@ -8335,9 +8327,9 @@
         <v>7296.5320000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="18">
         <v>2207.5</v>
@@ -8386,9 +8378,9 @@
         <v>7837.1279999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="18">
         <v>2344.8000000000002</v>
@@ -8437,9 +8429,9 @@
         <v>8496.1839999999993</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="18">
         <v>2015.5</v>
@@ -8488,9 +8480,9 @@
         <v>7336.415</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="18">
         <v>2368.6</v>
@@ -8539,9 +8531,9 @@
         <v>8253.9050000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="18">
         <v>2201.4</v>
@@ -8590,9 +8582,9 @@
         <v>7583.2449999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="18">
         <v>2250.6999999999998</v>
@@ -8641,9 +8633,9 @@
         <v>7655.7749999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="18">
         <v>2231.9</v>
@@ -8692,9 +8684,9 @@
         <v>8003.2669999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="18">
         <v>1990.6</v>
@@ -8743,9 +8735,9 @@
         <v>7338.4129999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="18">
         <v>2159.5</v>
@@ -8794,9 +8786,9 @@
         <v>7727.8860000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="18">
         <v>2008.9</v>
@@ -8845,9 +8837,9 @@
         <v>7341.884</v>
       </c>
     </row>
-    <row r="109" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="18">
         <v>2113.1</v>
@@ -8896,9 +8888,9 @@
         <v>7699.8639999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="18">
         <v>2126.3000000000002</v>
@@ -8947,9 +8939,9 @@
         <v>7540.2129999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="18">
         <v>2148.8000000000002</v>
@@ -8998,9 +8990,9 @@
         <v>7684.6769999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="18">
         <v>2215.1</v>
@@ -9049,9 +9041,9 @@
         <v>7897.1459999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="18">
         <v>2215.1999999999998</v>
@@ -9100,9 +9092,9 @@
         <v>7857.2269999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="18">
         <v>2386.9</v>
@@ -9151,9 +9143,9 @@
         <v>8149.9390000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="18">
         <v>2134.1</v>
@@ -9202,9 +9194,9 @@
         <v>7289.7470000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="18">
         <v>2375</v>
@@ -9253,9 +9245,9 @@
         <v>8040.4759999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="18">
         <v>2131.9</v>
@@ -9304,9 +9296,9 @@
         <v>7675.6549999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="18">
         <v>2052.5</v>
@@ -9355,9 +9347,9 @@
         <v>7307.5590000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="18">
         <v>2266.1999999999998</v>
@@ -9406,9 +9398,9 @@
         <v>8170.4</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="18">
         <v>2020.4</v>
@@ -9457,9 +9449,9 @@
         <v>7105.5559999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="18">
         <v>2122.9</v>
@@ -9508,9 +9500,9 @@
         <v>7639.2139999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="18">
         <v>2270.9</v>
@@ -9559,9 +9551,9 @@
         <v>7998.1530000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="18">
         <v>2235.5</v>
@@ -9610,9 +9602,9 @@
         <v>7981.6549999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="18">
         <v>2234.9</v>
@@ -9661,9 +9653,9 @@
         <v>7973.1270000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="18">
         <v>2252.1999999999998</v>
@@ -9712,9 +9704,9 @@
         <v>7875.0360000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="18">
         <v>2286.6</v>
@@ -9763,9 +9755,9 @@
         <v>7821.049</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="18">
         <v>2229.6</v>
@@ -9814,9 +9806,9 @@
         <v>7495.759</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="18">
         <v>2320</v>
@@ -9865,9 +9857,9 @@
         <v>7816.0590000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="18">
         <v>2087.1999999999998</v>
@@ -9916,9 +9908,9 @@
         <v>7199.2340000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="18">
         <v>2139.1999999999998</v>
@@ -9967,9 +9959,9 @@
         <v>7513.5690000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="18">
         <v>2211.1999999999998</v>
@@ -10018,9 +10010,9 @@
         <v>7940.1270000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="18">
         <v>1955.2</v>
@@ -10069,9 +10061,9 @@
         <v>6902.9989999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="18">
         <v>2081.8000000000002</v>
@@ -10120,9 +10112,9 @@
         <v>7174.5309999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" s="18">
         <v>2134.4</v>
@@ -10171,9 +10163,9 @@
         <v>7571.1970000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" s="18">
         <v>2016.1</v>
@@ -10222,9 +10214,9 @@
         <v>7231.1549999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="18">
         <v>2275.6999999999998</v>
@@ -10273,9 +10265,9 @@
         <v>7973.067</v>
       </c>
     </row>
-    <row r="137" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="18">
         <v>2234.1</v>
@@ -10324,9 +10316,9 @@
         <v>7799.6049999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="18">
         <v>2184.1999999999998</v>
@@ -10375,9 +10367,9 @@
         <v>7561.0479999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="18">
         <v>2271.1999999999998</v>
@@ -10426,9 +10418,9 @@
         <v>7719.1940000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="18">
         <v>2289</v>
@@ -10477,9 +10469,9 @@
         <v>7717.2309999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="18">
         <v>2179.4</v>
@@ -10528,9 +10520,9 @@
         <v>7269.0349999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="18">
         <v>2133.4</v>
@@ -10579,9 +10571,9 @@
         <v>7564.27</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="18">
         <v>2144</v>
@@ -10630,9 +10622,9 @@
         <v>7615.634</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="18">
         <v>1986</v>
@@ -10681,9 +10673,9 @@
         <v>6974.5339999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="18">
         <v>2117.9</v>
@@ -10732,9 +10724,9 @@
         <v>7512.2479999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146" s="18">
         <v>2082</v>
@@ -10783,9 +10775,9 @@
         <v>7589.7330000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="18">
         <v>1959.3</v>
@@ -10834,9 +10826,9 @@
         <v>7048.6850000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="18">
         <v>2340.9</v>
@@ -10885,9 +10877,9 @@
         <v>8390.5650000000005</v>
       </c>
     </row>
-    <row r="149" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="18">
         <v>2269.9</v>
@@ -10936,9 +10928,9 @@
         <v>7949.8609999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="18">
         <v>2266.8000000000002</v>
@@ -10987,9 +10979,9 @@
         <v>7694.7340000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="18">
         <v>2371.6</v>
@@ -11038,9 +11030,9 @@
         <v>8038.0349999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="18">
         <v>2263.4</v>
@@ -11089,9 +11081,9 @@
         <v>7664.3339999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="18">
         <v>2380.1</v>
@@ -11140,9 +11132,9 @@
         <v>7922.0940000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="18">
         <v>2255.4</v>
@@ -11191,9 +11183,9 @@
         <v>8025.2340000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="18">
         <v>2100.5</v>
@@ -11242,9 +11234,9 @@
         <v>7569.3469999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="18">
         <v>2038.6</v>
@@ -11293,9 +11285,9 @@
         <v>7406.1859999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="18">
         <v>2232.6999999999998</v>
@@ -11344,9 +11336,9 @@
         <v>8208.0720000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="18">
         <v>2061.4</v>
@@ -11395,9 +11387,9 @@
         <v>7426.0709999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="18">
         <v>2228.8000000000002</v>
@@ -11446,9 +11438,9 @@
         <v>7869.0410000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="18">
         <v>2443</v>
@@ -11497,9 +11489,9 @@
         <v>8589.7510000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="18">
         <v>2094.6999999999998</v>
@@ -11548,9 +11540,9 @@
         <v>7220.1030000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="18">
         <v>2450.6</v>
@@ -11599,9 +11591,9 @@
         <v>8041.5159999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="18">
         <v>2256.6999999999998</v>
@@ -11650,9 +11642,9 @@
         <v>7512.7839999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="18">
         <v>2348.5</v>
@@ -11701,9 +11693,9 @@
         <v>7576.9889999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="18">
         <v>2285.1</v>
@@ -11752,9 +11744,9 @@
         <v>7772.6930000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166" s="18">
         <v>2015</v>
@@ -11803,9 +11795,9 @@
         <v>7110.21</v>
       </c>
     </row>
-    <row r="167" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="18">
         <v>2118.1999999999998</v>
@@ -11854,9 +11846,9 @@
         <v>7427.9440000000004</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="18">
         <v>1952.5</v>
@@ -11905,9 +11897,9 @@
         <v>6733.2309999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="18">
         <v>2166</v>
@@ -11956,9 +11948,9 @@
         <v>7608.4790000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170" s="18">
         <v>2049.6</v>
@@ -12007,9 +11999,9 @@
         <v>7043.0249999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="18">
         <v>2226.6</v>
@@ -12058,9 +12050,9 @@
         <v>7576.3680000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="18">
         <v>2236.4</v>
@@ -12109,9 +12101,9 @@
         <v>7926.5029999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="18">
         <v>2169.9</v>
@@ -12160,9 +12152,9 @@
         <v>7316.451</v>
       </c>
     </row>
-    <row r="174" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="18">
         <v>2450</v>
@@ -12211,9 +12203,9 @@
         <v>7901.4719999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="18">
         <v>2213.6</v>
@@ -12262,9 +12254,9 @@
         <v>7094.0219999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="18">
         <v>2446.1</v>
@@ -12313,9 +12305,9 @@
         <v>7706.6329999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="18">
         <v>2309</v>
@@ -12364,9 +12356,9 @@
         <v>7728.8119999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="18">
         <v>1969.2</v>
@@ -12415,9 +12407,9 @@
         <v>6832.0039999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="18">
         <v>2203.6999999999998</v>
@@ -12466,9 +12458,9 @@
         <v>7711.2079999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="18">
         <v>1826.9</v>
@@ -12517,9 +12509,9 @@
         <v>6620.88</v>
       </c>
     </row>
-    <row r="181" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="18">
         <v>2051</v>
@@ -12568,9 +12560,9 @@
         <v>7355.5550000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182" s="18">
         <v>2057.3000000000002</v>
@@ -12619,9 +12611,9 @@
         <v>7314.8779999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B183" s="18">
         <v>2071.3000000000002</v>
@@ -12670,9 +12662,9 @@
         <v>7374.8180000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184" s="18">
         <v>2080.6999999999998</v>
@@ -12721,9 +12713,9 @@
         <v>7457.4669999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="18">
         <v>2158</v>
@@ -12772,9 +12764,9 @@
         <v>7403.0839999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="18">
         <v>2319</v>
@@ -12823,9 +12815,9 @@
         <v>7712.73</v>
       </c>
     </row>
-    <row r="187" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="18">
         <v>2082.8000000000002</v>
@@ -12874,9 +12866,9 @@
         <v>6872.0720000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="18">
         <v>2227</v>
@@ -12925,9 +12917,9 @@
         <v>7524.3379999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="18">
         <v>2074</v>
@@ -12976,9 +12968,9 @@
         <v>7210.4390000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="18">
         <v>1887.8</v>
@@ -13027,9 +13019,9 @@
         <v>6934.9009999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="18">
         <v>2041.7</v>
@@ -13078,9 +13070,9 @@
         <v>7387.7380000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="18">
         <v>1767.4</v>
@@ -13129,9 +13121,9 @@
         <v>6507.24</v>
       </c>
     </row>
-    <row r="193" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B193" s="18">
         <v>1915.6</v>
@@ -13180,9 +13172,9 @@
         <v>6991.3280000000004</v>
       </c>
     </row>
-    <row r="194" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="18">
         <v>2042</v>
@@ -13231,9 +13223,9 @@
         <v>7213.1390000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B195" s="18">
         <v>1941</v>
@@ -13282,9 +13274,9 @@
         <v>7053.5330000000004</v>
       </c>
     </row>
-    <row r="196" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="18">
         <v>2114</v>
@@ -13333,9 +13325,9 @@
         <v>7296.57</v>
       </c>
     </row>
-    <row r="197" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B197" s="18">
         <v>2105</v>
@@ -13384,9 +13376,9 @@
         <v>7347.683</v>
       </c>
     </row>
-    <row r="198" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B198" s="18">
         <v>2151</v>
@@ -13435,9 +13427,9 @@
         <v>7346.7889999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199" s="18">
         <v>2104</v>
@@ -13486,9 +13478,9 @@
         <v>7057.9049999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" s="18">
         <v>2227</v>
@@ -13537,9 +13529,9 @@
         <v>7311.5519999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" s="18">
         <v>2070</v>
@@ -13588,9 +13580,9 @@
         <v>6825.0879999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202" s="18">
         <v>1956</v>
@@ -13639,9 +13631,9 @@
         <v>6985.884</v>
       </c>
     </row>
-    <row r="203" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" s="18">
         <v>2108</v>
@@ -13690,9 +13682,9 @@
         <v>7325.9690000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B204" s="18">
         <v>1804</v>
@@ -13741,9 +13733,9 @@
         <v>6268.3959999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B205" s="18">
         <v>1926</v>
@@ -13792,9 +13784,9 @@
         <v>6982.4210000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" s="18">
         <v>1978</v>
@@ -13843,9 +13835,9 @@
         <v>7089.0389999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B207" s="18">
         <v>1783</v>
@@ -13894,9 +13886,9 @@
         <v>6411.7089999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="18">
         <v>2212</v>
@@ -13945,9 +13937,9 @@
         <v>7743.0870000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B209" s="18">
         <v>2314</v>
@@ -13996,9 +13988,9 @@
         <v>7294.3670000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B210" s="18">
         <v>2328</v>
@@ -14047,9 +14039,9 @@
         <v>7118.8969999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" s="18">
         <v>2439</v>
@@ -14098,9 +14090,9 @@
         <v>7440.6540000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B212" s="18">
         <v>2391</v>
@@ -14149,9 +14141,9 @@
         <v>7203.9480000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="18">
         <v>2360</v>
@@ -14200,9 +14192,9 @@
         <v>7212.942</v>
       </c>
     </row>
-    <row r="214" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" s="18">
         <v>2151</v>
@@ -14251,9 +14243,9 @@
         <v>7058.9080000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" s="18">
         <v>2048</v>
@@ -14302,9 +14294,9 @@
         <v>6768.4210000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" s="18">
         <v>1942</v>
@@ -14353,9 +14345,9 @@
         <v>6347.9650000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" s="18">
         <v>2291</v>
@@ -14404,9 +14396,9 @@
         <v>7333.6130000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" s="18">
         <v>2107</v>
@@ -14455,9 +14447,9 @@
         <v>6847.6149999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B219" s="18">
         <v>2164</v>
@@ -14506,9 +14498,9 @@
         <v>6857.0389999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="18">
         <v>2512</v>
@@ -14557,9 +14549,9 @@
         <v>7862.5330000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B221" s="18">
         <v>2201</v>
@@ -14608,9 +14600,9 @@
         <v>6918.3310000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="18">
         <v>2469</v>
@@ -14659,9 +14651,9 @@
         <v>7456.44</v>
       </c>
     </row>
-    <row r="223" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" s="18">
         <v>2427</v>
@@ -14710,9 +14702,9 @@
         <v>7337.0140000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B224" s="18">
         <v>2302</v>
@@ -14761,9 +14753,9 @@
         <v>6856.78</v>
       </c>
     </row>
-    <row r="225" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B225" s="18">
         <v>2336</v>
@@ -14812,9 +14804,9 @@
         <v>7417.4080000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B226" s="18">
         <v>2195</v>
@@ -14863,9 +14855,9 @@
         <v>7152.4759999999997</v>
       </c>
     </row>
-    <row r="227" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" s="18">
         <v>2059</v>
@@ -14914,9 +14906,9 @@
         <v>6712.8819999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" s="18">
         <v>1987</v>
@@ -14965,9 +14957,9 @@
         <v>6404.6610000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B229" s="18">
         <v>2331</v>
@@ -15016,9 +15008,9 @@
         <v>7348.9880000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" s="18">
         <v>2110</v>
@@ -15067,9 +15059,9 @@
         <v>6694.3609999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B231" s="18">
         <v>2201</v>
@@ -15118,9 +15110,9 @@
         <v>6963.4350000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B232" s="18">
         <v>2389</v>
@@ -15169,9 +15161,9 @@
         <v>7703.6</v>
       </c>
     </row>
-    <row r="233" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B233" s="18">
         <v>2121</v>
@@ -15220,9 +15212,9 @@
         <v>6531.3050000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B234" s="18">
         <v>2425</v>
@@ -15271,9 +15263,9 @@
         <v>7413.2489999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B235" s="18">
         <v>2177</v>
@@ -15322,9 +15314,9 @@
         <v>6713.6350000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B236" s="18">
         <v>2269</v>
@@ -15373,9 +15365,9 @@
         <v>6866.4740000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B237" s="18">
         <v>2294</v>
@@ -15424,9 +15416,9 @@
         <v>7213.2659999999996</v>
       </c>
     </row>
-    <row r="238" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B238" s="18">
         <v>1939</v>
@@ -15475,9 +15467,9 @@
         <v>6455.89</v>
       </c>
     </row>
-    <row r="239" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B239" s="18">
         <v>2096</v>
@@ -15526,9 +15518,9 @@
         <v>6815.768</v>
       </c>
     </row>
-    <row r="240" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B240" s="18">
         <v>1881</v>
@@ -15577,9 +15569,9 @@
         <v>6132.1239999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B241" s="18">
         <v>2205</v>
@@ -15628,9 +15620,9 @@
         <v>7017.5540000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B242" s="18">
         <v>1997</v>
@@ -15677,9 +15669,9 @@
         <v>6368.0150000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B243" s="18">
         <v>2169</v>
@@ -15726,9 +15718,9 @@
         <v>6957.2839999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B244" s="18">
         <v>2345</v>
@@ -15775,9 +15767,9 @@
         <v>7226.576</v>
       </c>
     </row>
-    <row r="245" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B245" s="18">
         <v>2275</v>
@@ -15824,9 +15816,9 @@
         <v>6710.7290000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B246" s="18">
         <v>2437</v>
@@ -15873,9 +15865,9 @@
         <v>7364.2209999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B247" s="18">
         <v>2202</v>
@@ -15922,9 +15914,9 @@
         <v>6492.6689999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B248" s="18">
         <v>2369</v>
@@ -15971,9 +15963,9 @@
         <v>7107.5659999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B249" s="18">
         <v>2303</v>
@@ -16020,9 +16012,9 @@
         <v>7121.2860000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B250" s="18">
         <v>2027</v>
@@ -16069,9 +16061,9 @@
         <v>6220.2439999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B251" s="18">
         <v>2300</v>
@@ -16118,9 +16110,9 @@
         <v>7209.5</v>
       </c>
     </row>
-    <row r="252" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B252" s="18">
         <v>2175</v>
@@ -16167,9 +16159,9 @@
         <v>6670.317</v>
       </c>
     </row>
-    <row r="253" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" s="18">
         <v>2178</v>
@@ -16216,9 +16208,9 @@
         <v>6608.0349999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B254" s="18">
         <v>2113</v>
@@ -16265,9 +16257,9 @@
         <v>6751.018</v>
       </c>
     </row>
-    <row r="255" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B255" s="18">
         <v>2144</v>
@@ -16314,9 +16306,9 @@
         <v>6792.7049999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" s="18">
         <v>2265</v>
@@ -16363,9 +16355,9 @@
         <v>6951.6239999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B257" s="18">
         <v>2275</v>
@@ -16412,9 +16404,9 @@
         <v>6884.3779999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B258" s="18">
         <v>2307</v>
@@ -16461,9 +16453,9 @@
         <v>6895.9009999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B259" s="18">
         <v>2256</v>
@@ -16510,9 +16502,9 @@
         <v>6697.3860000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B260" s="18">
         <v>2321</v>
@@ -16559,9 +16551,9 @@
         <v>6986.3230000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B261" s="18">
         <v>2151</v>
@@ -16608,9 +16600,9 @@
         <v>6524.835</v>
       </c>
     </row>
-    <row r="262" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B262" s="18">
         <v>2155</v>
@@ -16657,9 +16649,9 @@
         <v>6789.1490000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B263" s="18">
         <v>2231</v>
@@ -16706,9 +16698,9 @@
         <v>7049.5209999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B264" s="18">
         <v>1998</v>
@@ -16755,9 +16747,9 @@
         <v>6151.9960000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B265" s="18">
         <v>2170</v>
@@ -16804,9 +16796,9 @@
         <v>6658.7330000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B266" s="18">
         <v>2100</v>
@@ -16853,9 +16845,9 @@
         <v>6757.5619999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B267" s="18">
         <v>2003</v>
@@ -16902,9 +16894,9 @@
         <v>6365.4160000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B268" s="18">
         <v>2236</v>
@@ -16951,9 +16943,9 @@
         <v>6997.0429999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B269" s="18">
         <v>2197</v>
@@ -17000,9 +16992,9 @@
         <v>6574.308</v>
       </c>
     </row>
-    <row r="270" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B270" s="18">
         <v>2228</v>
@@ -17049,9 +17041,9 @@
         <v>6444.98</v>
       </c>
     </row>
-    <row r="271" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B271" s="18">
         <v>2213</v>
@@ -17098,9 +17090,9 @@
         <v>6596.009</v>
       </c>
     </row>
-    <row r="272" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B272" s="18">
         <v>2248</v>
@@ -17147,9 +17139,9 @@
         <v>6538.5829999999996</v>
       </c>
     </row>
-    <row r="273" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B273" s="18">
         <v>2123</v>
@@ -17196,9 +17188,9 @@
         <v>6265.0829999999996</v>
       </c>
     </row>
-    <row r="274" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B274" s="18">
         <v>2090</v>
@@ -17245,9 +17237,9 @@
         <v>6534.87</v>
       </c>
     </row>
-    <row r="275" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B275" s="18">
         <v>2081</v>
@@ -17294,9 +17286,9 @@
         <v>6492.2190000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B276" s="18">
         <v>1977</v>
@@ -17343,9 +17335,9 @@
         <v>6027.3580000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B277" s="18">
         <v>2157</v>
@@ -17392,9 +17384,9 @@
         <v>6633.875</v>
       </c>
     </row>
-    <row r="278" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B278" s="18">
         <v>2024</v>
@@ -17441,9 +17433,9 @@
         <v>6466.9110000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B279" s="18">
         <v>1934</v>
@@ -17490,9 +17482,9 @@
         <v>5915.9</v>
       </c>
     </row>
-    <row r="280" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B280" s="18">
         <v>2300</v>
@@ -17539,9 +17531,9 @@
         <v>7009.3159999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B281" s="18">
         <v>2126</v>
@@ -17588,9 +17580,9 @@
         <v>6402.5709999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B282" s="18">
         <v>2221</v>
@@ -17637,9 +17629,9 @@
         <v>6336.3909999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B283" s="18">
         <v>2256</v>
@@ -17686,9 +17678,9 @@
         <v>6455.7250000000004</v>
       </c>
     </row>
-    <row r="284" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B284" s="18">
         <v>2132</v>
@@ -17735,9 +17727,9 @@
         <v>6213.4979999999996</v>
       </c>
     </row>
-    <row r="285" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B285" s="18">
         <v>2189</v>
@@ -17784,9 +17776,9 @@
         <v>6384.1670000000004</v>
       </c>
     </row>
-    <row r="286" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B286" s="18">
         <v>2095</v>
@@ -17833,9 +17825,9 @@
         <v>6394.2060000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B287" s="18">
         <v>1966</v>
@@ -17882,9 +17874,9 @@
         <v>6002.8980000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B288" s="18">
         <v>1919</v>
@@ -17931,9 +17923,9 @@
         <v>5749.6130000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B289" s="18">
         <v>2222</v>
@@ -17980,9 +17972,9 @@
         <v>6532.2529999999997</v>
       </c>
     </row>
-    <row r="290" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B290" s="18">
         <v>1950</v>
@@ -18029,9 +18021,9 @@
         <v>5917.5519999999997</v>
       </c>
     </row>
-    <row r="291" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B291" s="18">
         <v>1955</v>
@@ -18078,9 +18070,9 @@
         <v>5891.5259999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B292" s="18">
         <v>2179</v>
@@ -18127,9 +18119,9 @@
         <v>6750.5029999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B293" s="18">
         <v>1934</v>
@@ -18176,9 +18168,9 @@
         <v>5941.1019999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B294" s="18">
         <v>2262</v>
@@ -18225,9 +18217,9 @@
         <v>6446.7309999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B295" s="18">
         <v>2194</v>
@@ -18274,9 +18266,9 @@
         <v>6295.14</v>
       </c>
     </row>
-    <row r="296" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B296" s="18">
         <v>2186</v>
@@ -18323,9 +18315,9 @@
         <v>5951.42</v>
       </c>
     </row>
-    <row r="297" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B297" s="18">
         <v>2302</v>
@@ -18372,9 +18364,9 @@
         <v>6537.2039999999997</v>
       </c>
     </row>
-    <row r="298" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B298" s="18">
         <v>2154</v>
@@ -18421,9 +18413,9 @@
         <v>6316.0990000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B299" s="18">
         <v>2035</v>
@@ -18470,9 +18462,9 @@
         <v>6079.5259999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B300" s="18">
         <v>2048</v>
@@ -18519,9 +18511,9 @@
         <v>6100.2269999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B301" s="18">
         <v>2220</v>
@@ -18568,9 +18560,9 @@
         <v>6507.317</v>
       </c>
     </row>
-    <row r="302" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B302" s="18">
         <v>1998</v>
@@ -18617,9 +18609,9 @@
         <v>5942.165</v>
       </c>
     </row>
-    <row r="303" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B303" s="18">
         <v>2098</v>
@@ -18666,9 +18658,9 @@
         <v>6284.5060000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B304" s="18">
         <v>2181</v>
@@ -18715,9 +18707,9 @@
         <v>6502.5950000000003</v>
       </c>
     </row>
-    <row r="305" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B305" s="18">
         <v>2220</v>
@@ -18764,9 +18756,9 @@
         <v>6167.4560000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B306" s="18">
         <v>2316</v>
@@ -18813,9 +18805,9 @@
         <v>6482.2460000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B307" s="18">
         <v>2089</v>
@@ -18862,9 +18854,9 @@
         <v>5778.5429999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B308" s="18">
         <v>2285</v>
@@ -18911,9 +18903,9 @@
         <v>6504.1559999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B309" s="18">
         <v>2186</v>
@@ -18960,9 +18952,9 @@
         <v>6404.64</v>
       </c>
     </row>
-    <row r="310" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B310" s="18">
         <v>1854</v>
@@ -19009,9 +19001,9 @@
         <v>5580.1289999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B311" s="18">
         <v>2067</v>
@@ -19058,9 +19050,9 @@
         <v>6378.4380000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B312" s="18">
         <v>1811</v>
@@ -19107,9 +19099,9 @@
         <v>5460.4930000000004</v>
       </c>
     </row>
-    <row r="313" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B313" s="18">
         <v>2010</v>
@@ -19156,9 +19148,9 @@
         <v>5986.951</v>
       </c>
     </row>
-    <row r="314" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B314" s="18">
         <v>2020</v>
@@ -19205,9 +19197,9 @@
         <v>6066.0879999999997</v>
       </c>
     </row>
-    <row r="315" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B315" s="18">
         <v>1978</v>
@@ -19254,9 +19246,9 @@
         <v>6081.13</v>
       </c>
     </row>
-    <row r="316" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B316" s="18">
         <v>2116</v>
@@ -19303,9 +19295,9 @@
         <v>6292.4269999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B317" s="18">
         <v>2135</v>
@@ -19352,9 +19344,9 @@
         <v>6233.77</v>
       </c>
     </row>
-    <row r="318" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B318" s="18">
         <v>2215</v>
@@ -19401,9 +19393,9 @@
         <v>6430.5709999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B319" s="18">
         <v>2027</v>
@@ -19450,9 +19442,9 @@
         <v>5638.4049999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B320" s="18">
         <v>2156</v>
@@ -19499,9 +19491,9 @@
         <v>6141.415</v>
       </c>
     </row>
-    <row r="321" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B321" s="18">
         <v>1985</v>
@@ -19548,9 +19540,9 @@
         <v>5826.1379999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B322" s="18">
         <v>1901</v>
@@ -19597,9 +19589,9 @@
         <v>5677.7309999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B323" s="18">
         <v>2001</v>
@@ -19646,9 +19638,9 @@
         <v>6007.7520000000004</v>
       </c>
     </row>
-    <row r="324" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B324" s="18">
         <v>1802</v>
@@ -19695,9 +19687,9 @@
         <v>5207.3519999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B325" s="18">
         <v>1942</v>
@@ -19744,9 +19736,9 @@
         <v>5584.7430000000004</v>
       </c>
     </row>
-    <row r="326" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B326" s="18">
         <v>1948</v>
@@ -19793,9 +19785,9 @@
         <v>5783.6149999999998</v>
       </c>
     </row>
-    <row r="327" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B327" s="18">
         <v>1891</v>
@@ -19842,9 +19834,9 @@
         <v>5699.116</v>
       </c>
     </row>
-    <row r="328" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B328" s="18">
         <v>1980</v>
@@ -19891,9 +19883,9 @@
         <v>5807.1459999999997</v>
       </c>
     </row>
-    <row r="329" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B329" s="18">
         <v>2027</v>
@@ -19940,9 +19932,9 @@
         <v>5855.8990000000003</v>
       </c>
     </row>
-    <row r="330" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B330" s="18">
         <v>2065</v>
@@ -19989,9 +19981,9 @@
         <v>5821.8829999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B331" s="18">
         <v>1984</v>
@@ -20038,9 +20030,9 @@
         <v>5555.6139999999996</v>
       </c>
     </row>
-    <row r="332" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B332" s="18">
         <v>2051</v>
@@ -20087,9 +20079,9 @@
         <v>5904.951</v>
       </c>
     </row>
-    <row r="333" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B333" s="18">
         <v>1857</v>
@@ -20136,9 +20128,9 @@
         <v>5374.3779999999997</v>
       </c>
     </row>
-    <row r="334" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B334" s="18">
         <v>1782</v>
@@ -20185,9 +20177,9 @@
         <v>5550.3959999999997</v>
       </c>
     </row>
-    <row r="335" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B335" s="18">
         <v>1858</v>
@@ -20234,9 +20226,9 @@
         <v>5657.2039999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B336" s="18">
         <v>1677</v>
@@ -20283,9 +20275,9 @@
         <v>4982.9380000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B337" s="18">
         <v>1822</v>
@@ -20332,9 +20324,9 @@
         <v>5441.5640000000003</v>
       </c>
     </row>
-    <row r="338" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B338" s="18">
         <v>1855</v>
@@ -20381,9 +20373,9 @@
         <v>5619.915</v>
       </c>
     </row>
-    <row r="339" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B339" s="18">
         <v>1784</v>
@@ -20430,9 +20422,9 @@
         <v>5272.3860000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B340" s="18">
         <v>2015</v>
@@ -20479,9 +20471,9 @@
         <v>5935.9030000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B341" s="18">
         <v>1996</v>
@@ -20528,9 +20520,9 @@
         <v>5776.6530000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B342" s="18">
         <v>1980</v>
@@ -20577,9 +20569,9 @@
         <v>5563.36</v>
       </c>
     </row>
-    <row r="343" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B343" s="18">
         <v>2015</v>
@@ -20626,9 +20618,9 @@
         <v>5707.2309999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B344" s="18">
         <v>2039</v>
@@ -20675,9 +20667,9 @@
         <v>5670.6080000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B345" s="18">
         <v>1900</v>
@@ -20724,9 +20716,9 @@
         <v>5341.7860000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B346" s="18">
         <v>1787</v>
@@ -20773,9 +20765,9 @@
         <v>5360.5829999999996</v>
       </c>
     </row>
-    <row r="347" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B347" s="18">
         <v>1850</v>
@@ -20822,9 +20814,9 @@
         <v>5478.4979999999996</v>
       </c>
     </row>
-    <row r="348" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B348" s="18">
         <v>1708</v>
@@ -20871,9 +20863,9 @@
         <v>4982.5690000000004</v>
       </c>
     </row>
-    <row r="349" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B349" s="18">
         <v>2039</v>
@@ -20920,9 +20912,9 @@
         <v>5748.2550000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B350" s="18">
         <v>1782</v>
@@ -20969,9 +20961,9 @@
         <v>5222.8670000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B351" s="18">
         <v>1813</v>
@@ -21018,9 +21010,9 @@
         <v>5227.1689999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B352" s="18">
         <v>2114</v>
@@ -21067,9 +21059,9 @@
         <v>5998.0439999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B353" s="18">
         <v>1940</v>
@@ -21116,9 +21108,9 @@
         <v>5282.5219999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B354" s="18">
         <v>2077</v>
@@ -21165,9 +21157,9 @@
         <v>5578.1859999999997</v>
       </c>
     </row>
-    <row r="355" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B355" s="18">
         <v>1996</v>
@@ -21214,9 +21206,9 @@
         <v>5363.5789999999997</v>
       </c>
     </row>
-    <row r="356" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B356" s="18">
         <v>1874</v>
@@ -21263,9 +21255,9 @@
         <v>5006.509</v>
       </c>
     </row>
-    <row r="357" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B357" s="18">
         <v>1947</v>
@@ -21312,9 +21304,9 @@
         <v>5420.875</v>
       </c>
     </row>
-    <row r="358" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B358" s="18">
         <v>1872</v>
@@ -21361,9 +21353,9 @@
         <v>5344.7089999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B359" s="18">
         <v>1720</v>
@@ -21410,9 +21402,9 @@
         <v>4924.0200000000004</v>
       </c>
     </row>
-    <row r="360" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B360" s="18">
         <v>1695</v>
@@ -21459,9 +21451,9 @@
         <v>4744.6350000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B361" s="18">
         <v>1970</v>
@@ -21508,9 +21500,9 @@
         <v>5432.3450000000003</v>
       </c>
     </row>
-    <row r="362" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B362" s="18">
         <v>1681</v>
@@ -21557,9 +21549,9 @@
         <v>4810.473</v>
       </c>
     </row>
-    <row r="363" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B363" s="18">
         <v>1842</v>
@@ -21606,9 +21598,9 @@
         <v>5250.152</v>
       </c>
     </row>
-    <row r="364" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B364" s="18">
         <v>2044</v>
@@ -21655,9 +21647,9 @@
         <v>5714.1229999999996</v>
       </c>
     </row>
-    <row r="365" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B365" s="18">
         <v>1815</v>
@@ -21704,9 +21696,9 @@
         <v>4879.82</v>
       </c>
     </row>
-    <row r="366" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B366" s="18">
         <v>2063</v>
@@ -21753,9 +21745,9 @@
         <v>5543.4189999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B367" s="18">
         <v>1945</v>
@@ -21802,9 +21794,9 @@
         <v>4997.6310000000003</v>
       </c>
     </row>
-    <row r="368" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B368" s="18">
         <v>1981</v>
@@ -21851,9 +21843,9 @@
         <v>5092.4489999999996</v>
       </c>
     </row>
-    <row r="369" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B369" s="18">
         <v>2007</v>
@@ -21900,9 +21892,9 @@
         <v>5327.2629999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B370" s="18">
         <v>1748</v>
@@ -21949,9 +21941,9 @@
         <v>4852.5860000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B371" s="18">
         <v>1870</v>
@@ -21998,9 +21990,9 @@
         <v>5131.268</v>
       </c>
     </row>
-    <row r="372" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B372" s="18">
         <v>1706</v>
@@ -22047,9 +22039,9 @@
         <v>4622.2939999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B373" s="18">
         <v>1932</v>
@@ -22096,9 +22088,9 @@
         <v>5251.2449999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B374" s="18">
         <v>1827</v>
@@ -22145,9 +22137,9 @@
         <v>4968.1270000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B375" s="18">
         <v>1906</v>
@@ -22194,9 +22186,9 @@
         <v>5224.0020000000004</v>
       </c>
     </row>
-    <row r="376" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B376" s="18">
         <v>2041</v>
@@ -22243,9 +22235,9 @@
         <v>5409.085</v>
       </c>
     </row>
-    <row r="377" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B377" s="18">
         <v>1913</v>
@@ -22292,9 +22284,9 @@
         <v>5109.2070000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B378" s="18">
         <v>2092</v>
@@ -22341,9 +22333,9 @@
         <v>5496.12</v>
       </c>
     </row>
-    <row r="379" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B379" s="18">
         <v>1888</v>
@@ -22390,9 +22382,9 @@
         <v>4758.7539999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B380" s="18">
         <v>2022</v>
@@ -22439,9 +22431,9 @@
         <v>5224.8289999999997</v>
       </c>
     </row>
-    <row r="381" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B381" s="18">
         <v>1999</v>
@@ -22488,9 +22480,9 @@
         <v>5268.3959999999997</v>
       </c>
     </row>
-    <row r="382" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B382" s="18">
         <v>1756</v>
@@ -22537,9 +22529,9 @@
         <v>4714.2860000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B383" s="18">
         <v>1887</v>
@@ -22586,9 +22578,9 @@
         <v>5078.2479999999996</v>
       </c>
     </row>
-    <row r="384" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B384" s="18">
         <v>1744</v>
@@ -22635,9 +22627,9 @@
         <v>4502.4840000000004</v>
       </c>
     </row>
-    <row r="385" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B385" s="18">
         <v>1899</v>
@@ -22684,9 +22676,9 @@
         <v>4878.8</v>
       </c>
     </row>
-    <row r="386" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B386" s="18">
         <v>1872</v>
@@ -22733,9 +22725,9 @@
         <v>4921.8620000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B387" s="18">
         <v>1876</v>
@@ -22782,9 +22774,9 @@
         <v>5027.66</v>
       </c>
     </row>
-    <row r="388" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B388" s="18">
         <v>2007</v>
@@ -22831,9 +22823,9 @@
         <v>5247.0990000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B389" s="18">
         <v>2041</v>
@@ -22880,9 +22872,9 @@
         <v>5175.1130000000003</v>
       </c>
     </row>
-    <row r="390" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B390" s="18">
         <v>2162</v>
@@ -22929,9 +22921,9 @@
         <v>5269.3720000000003</v>
       </c>
     </row>
-    <row r="391" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B391" s="18">
         <v>1982</v>
@@ -22978,9 +22970,9 @@
         <v>4693.22</v>
       </c>
     </row>
-    <row r="392" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B392" s="18">
         <v>2025</v>
@@ -23027,9 +23019,9 @@
         <v>5068.4380000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B393" s="18">
         <v>1918</v>
@@ -23076,9 +23068,9 @@
         <v>4890.4470000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B394" s="18">
         <v>1841</v>
@@ -23125,9 +23117,9 @@
         <v>4733.68</v>
       </c>
     </row>
-    <row r="395" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B395" s="18">
         <v>1925</v>
@@ -23174,9 +23166,9 @@
         <v>5053.9120000000003</v>
       </c>
     </row>
-    <row r="396" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B396" s="18">
         <v>1829</v>
@@ -23223,9 +23215,9 @@
         <v>4615.3999999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B397" s="18">
         <v>1946</v>
@@ -23272,9 +23264,9 @@
         <v>4780.848</v>
       </c>
     </row>
-    <row r="398" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B398" s="18">
         <v>1924</v>
@@ -23321,9 +23313,9 @@
         <v>4970.683</v>
       </c>
     </row>
-    <row r="399" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B399" s="18">
         <v>1828</v>
@@ -23370,9 +23362,9 @@
         <v>4695.6469999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B400" s="18">
         <v>2098</v>
@@ -23419,9 +23411,9 @@
         <v>5278.2290000000003</v>
       </c>
     </row>
-    <row r="401" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B401" s="18">
         <v>2040</v>
@@ -23468,9 +23460,9 @@
         <v>5055.2610000000004</v>
       </c>
     </row>
-    <row r="402" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B402" s="18">
         <v>2007</v>
@@ -23517,9 +23509,9 @@
         <v>4720.3630000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B403" s="18">
         <v>2017</v>
@@ -23566,9 +23558,9 @@
         <v>4828.8280000000004</v>
       </c>
     </row>
-    <row r="404" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B404" s="18">
         <v>1958</v>
@@ -23615,9 +23607,9 @@
         <v>4793.3379999999997</v>
       </c>
     </row>
-    <row r="405" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B405" s="18">
         <v>1851</v>
@@ -23664,9 +23656,9 @@
         <v>4485.3329999999996</v>
       </c>
     </row>
-    <row r="406" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B406" s="18">
         <v>1928</v>
@@ -23713,9 +23705,9 @@
         <v>4666.29</v>
       </c>
     </row>
-    <row r="407" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B407" s="18">
         <v>1907</v>
@@ -23762,9 +23754,9 @@
         <v>4704.1980000000003</v>
       </c>
     </row>
-    <row r="408" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B408" s="18">
         <v>1745</v>
@@ -23811,9 +23803,9 @@
         <v>4212.28</v>
       </c>
     </row>
-    <row r="409" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B409" s="18">
         <v>2102</v>
@@ -23860,9 +23852,9 @@
         <v>4855.0150000000003</v>
       </c>
     </row>
-    <row r="410" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B410" s="18">
         <v>1971</v>
@@ -23909,9 +23901,9 @@
         <v>4698.21</v>
       </c>
     </row>
-    <row r="411" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B411" s="18">
         <v>1808</v>
@@ -23958,9 +23950,9 @@
         <v>4282.4319999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B412" s="18">
         <v>2146</v>
@@ -24007,9 +23999,9 @@
         <v>5078.9989999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B413" s="18">
         <v>2050</v>
@@ -24056,9 +24048,9 @@
         <v>4791.7520000000004</v>
       </c>
     </row>
-    <row r="414" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B414" s="18">
         <v>2076</v>
@@ -24105,9 +24097,9 @@
         <v>4618.0439999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B415" s="18">
         <v>2147</v>
@@ -24154,9 +24146,9 @@
         <v>4740.4340000000002</v>
       </c>
     </row>
-    <row r="416" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B416" s="18">
         <v>2027</v>
@@ -24203,9 +24195,9 @@
         <v>4590.165</v>
       </c>
     </row>
-    <row r="417" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B417" s="18">
         <v>2109</v>
@@ -24252,9 +24244,9 @@
         <v>4811.0360000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B418" s="18">
         <v>2110</v>
@@ -24301,9 +24293,9 @@
         <v>4889.4970000000003</v>
       </c>
     </row>
-    <row r="419" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B419" s="18">
         <v>1860</v>
@@ -24350,9 +24342,9 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="420" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B420" s="18">
         <v>1769</v>
@@ -24399,9 +24391,9 @@
         <v>4162.558</v>
       </c>
     </row>
-    <row r="421" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B421" s="18">
         <v>2140</v>
@@ -24448,9 +24440,9 @@
         <v>4824.66</v>
       </c>
     </row>
-    <row r="422" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B422" s="18">
         <v>1855</v>
@@ -24497,9 +24489,9 @@
         <v>4372.009</v>
       </c>
     </row>
-    <row r="423" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B423" s="18">
         <v>1812</v>
@@ -24546,9 +24538,9 @@
         <v>4324.634</v>
       </c>
     </row>
-    <row r="424" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B424" s="18">
         <v>2108</v>
@@ -24595,9 +24587,9 @@
         <v>5066.2219999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B425" s="18">
         <v>1985</v>
@@ -24644,9 +24636,9 @@
         <v>4559.4309999999996</v>
       </c>
     </row>
-    <row r="426" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B426" s="18">
         <v>2123</v>
@@ -24693,9 +24685,9 @@
         <v>4831.4520000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B427" s="18">
         <v>2059</v>
@@ -24742,9 +24734,9 @@
         <v>4695.5259999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B428" s="18">
         <v>1898</v>
@@ -24791,9 +24783,9 @@
         <v>4364.2719999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B429" s="18">
         <v>2089</v>
@@ -24840,9 +24832,9 @@
         <v>4866.692</v>
       </c>
     </row>
-    <row r="430" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B430" s="18">
         <v>1936</v>
@@ -24889,9 +24881,9 @@
         <v>4618.1090000000004</v>
       </c>
     </row>
-    <row r="431" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B431" s="18">
         <v>1858</v>
@@ -24938,9 +24930,9 @@
         <v>4368.7049999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B432" s="18">
         <v>1768</v>
@@ -24987,9 +24979,9 @@
         <v>4028.5039999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B433" s="18">
         <v>2066</v>
@@ -25036,9 +25028,9 @@
         <v>4677.7219999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B434" s="18">
         <v>1830</v>
@@ -25085,9 +25077,9 @@
         <v>4214.0150000000003</v>
       </c>
     </row>
-    <row r="435" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B435" s="18">
         <v>1924</v>
@@ -25134,9 +25126,9 @@
         <v>4530.3549999999996</v>
       </c>
     </row>
-    <row r="436" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B436" s="18">
         <v>2182</v>
@@ -25183,9 +25175,9 @@
         <v>5132.63</v>
       </c>
     </row>
-    <row r="437" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B437" s="18">
         <v>1904</v>
@@ -25232,9 +25224,9 @@
         <v>4327.3119999999999</v>
       </c>
     </row>
-    <row r="438" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B438" s="18">
         <v>2112</v>
@@ -25281,9 +25273,9 @@
         <v>4792.8559999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B439" s="18">
         <v>1936</v>
@@ -25330,9 +25322,9 @@
         <v>4331.63</v>
       </c>
     </row>
-    <row r="440" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B440" s="18">
         <v>1984</v>
@@ -25379,9 +25371,9 @@
         <v>4491.2439999999997</v>
       </c>
     </row>
-    <row r="441" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B441" s="18">
         <v>2060</v>
@@ -25428,9 +25420,9 @@
         <v>4741.4170000000004</v>
       </c>
     </row>
-    <row r="442" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B442" s="18">
         <v>1776</v>
@@ -25477,9 +25469,9 @@
         <v>4234.7060000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B443" s="18">
         <v>1937</v>
@@ -25526,9 +25518,9 @@
         <v>4502.6289999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B444" s="18">
         <v>1859</v>
@@ -25575,9 +25567,9 @@
         <v>4144.5150000000003</v>
       </c>
     </row>
-    <row r="445" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B445" s="18">
         <v>1914</v>
@@ -25624,9 +25616,9 @@
         <v>4296.75</v>
       </c>
     </row>
-    <row r="446" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B446" s="18">
         <v>1965</v>
@@ -25673,9 +25665,9 @@
         <v>4409.8059999999996</v>
       </c>
     </row>
-    <row r="447" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B447" s="18">
         <v>1935</v>
@@ -25722,9 +25714,9 @@
         <v>4587.0789999999997</v>
       </c>
     </row>
-    <row r="448" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B448" s="18">
         <v>2062</v>
@@ -25771,9 +25763,9 @@
         <v>4744.0739999999996</v>
       </c>
     </row>
-    <row r="449" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B449" s="18">
         <v>2090</v>
@@ -25820,9 +25812,9 @@
         <v>4661.4260000000004</v>
       </c>
     </row>
-    <row r="450" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B450" s="18">
         <v>2118</v>
@@ -25869,9 +25861,9 @@
         <v>4749.1260000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B451" s="18">
         <v>1807</v>
@@ -25918,9 +25910,9 @@
         <v>4139.7879999999996</v>
       </c>
     </row>
-    <row r="452" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B452" s="18">
         <v>1970</v>
@@ -25967,9 +25959,9 @@
         <v>4587.9260000000004</v>
       </c>
     </row>
-    <row r="453" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B453" s="18">
         <v>1859</v>
@@ -26016,9 +26008,9 @@
         <v>4376.3900000000003</v>
       </c>
     </row>
-    <row r="454" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B454" s="18">
         <v>1727</v>
@@ -26065,9 +26057,9 @@
         <v>4207.8239999999996</v>
       </c>
     </row>
-    <row r="455" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B455" s="18">
         <v>1892</v>
@@ -26114,9 +26106,9 @@
         <v>4489.982</v>
       </c>
     </row>
-    <row r="456" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B456" s="18">
         <v>1707</v>
@@ -26163,9 +26155,9 @@
         <v>3789.6260000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B457" s="18">
         <v>1928</v>
@@ -26212,9 +26204,9 @@
         <v>4236.1459999999997</v>
       </c>
     </row>
-    <row r="458" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -26239,9 +26231,9 @@
       </c>
       <c r="Q458" s="19"/>
     </row>
-    <row r="459" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
@@ -26266,9 +26258,9 @@
       </c>
       <c r="Q459" s="19"/>
     </row>
-    <row r="460" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
@@ -26293,9 +26285,9 @@
       </c>
       <c r="Q460" s="19"/>
     </row>
-    <row r="461" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -26320,9 +26312,9 @@
       </c>
       <c r="Q461" s="19"/>
     </row>
-    <row r="462" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B462" s="19"/>
       <c r="C462" s="19"/>
@@ -26347,9 +26339,9 @@
       </c>
       <c r="Q462" s="19"/>
     </row>
-    <row r="463" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
@@ -26374,9 +26366,9 @@
       </c>
       <c r="Q463" s="19"/>
     </row>
-    <row r="464" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>
@@ -26401,9 +26393,9 @@
       </c>
       <c r="Q464" s="19"/>
     </row>
-    <row r="465" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B465" s="19"/>
       <c r="C465" s="19"/>
@@ -26428,9 +26420,9 @@
       </c>
       <c r="Q465" s="19"/>
     </row>
-    <row r="466" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B466" s="19"/>
       <c r="C466" s="19"/>
@@ -26455,9 +26447,9 @@
       </c>
       <c r="Q466" s="19"/>
     </row>
-    <row r="467" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
@@ -26482,9 +26474,9 @@
       </c>
       <c r="Q467" s="19"/>
     </row>
-    <row r="468" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B468" s="19"/>
       <c r="C468" s="19"/>
@@ -26509,9 +26501,9 @@
       </c>
       <c r="Q468" s="19"/>
     </row>
-    <row r="469" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
@@ -26536,9 +26528,9 @@
       </c>
       <c r="Q469" s="19"/>
     </row>
-    <row r="470" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B470" s="19"/>
       <c r="C470" s="19"/>
@@ -26563,9 +26555,9 @@
       </c>
       <c r="Q470" s="19"/>
     </row>
-    <row r="471" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B471" s="19"/>
       <c r="C471" s="19"/>
@@ -26590,9 +26582,9 @@
       </c>
       <c r="Q471" s="19"/>
     </row>
-    <row r="472" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
@@ -26617,9 +26609,9 @@
       </c>
       <c r="Q472" s="19"/>
     </row>
-    <row r="473" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
@@ -26644,9 +26636,9 @@
       </c>
       <c r="Q473" s="19"/>
     </row>
-    <row r="474" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
@@ -26671,9 +26663,9 @@
       </c>
       <c r="Q474" s="19"/>
     </row>
-    <row r="475" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B475" s="19"/>
       <c r="C475" s="19"/>
@@ -26698,9 +26690,9 @@
       </c>
       <c r="Q475" s="19"/>
     </row>
-    <row r="476" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
@@ -26725,9 +26717,9 @@
       </c>
       <c r="Q476" s="19"/>
     </row>
-    <row r="477" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B477" s="19"/>
       <c r="C477" s="19"/>
@@ -26752,9 +26744,9 @@
       </c>
       <c r="Q477" s="19"/>
     </row>
-    <row r="478" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B478" s="19"/>
       <c r="C478" s="19"/>
@@ -26779,9 +26771,9 @@
       </c>
       <c r="Q478" s="19"/>
     </row>
-    <row r="479" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B479" s="19"/>
       <c r="C479" s="19"/>
@@ -26806,9 +26798,9 @@
       </c>
       <c r="Q479" s="19"/>
     </row>
-    <row r="480" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B480" s="19"/>
       <c r="C480" s="19"/>
@@ -26833,9 +26825,9 @@
       </c>
       <c r="Q480" s="19"/>
     </row>
-    <row r="481" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B481" s="19"/>
       <c r="C481" s="19"/>
@@ -26860,9 +26852,9 @@
       </c>
       <c r="Q481" s="19"/>
     </row>
-    <row r="482" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B482" s="19"/>
       <c r="C482" s="19"/>
@@ -26887,9 +26879,9 @@
       </c>
       <c r="Q482" s="19"/>
     </row>
-    <row r="483" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B483" s="19"/>
       <c r="C483" s="19"/>
@@ -26914,9 +26906,9 @@
       </c>
       <c r="Q483" s="19"/>
     </row>
-    <row r="484" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B484" s="19"/>
       <c r="C484" s="19"/>
@@ -26941,9 +26933,9 @@
       </c>
       <c r="Q484" s="19"/>
     </row>
-    <row r="485" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B485" s="19"/>
       <c r="C485" s="19"/>
@@ -26968,9 +26960,9 @@
       </c>
       <c r="Q485" s="19"/>
     </row>
-    <row r="486" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B486" s="19"/>
       <c r="C486" s="19"/>
@@ -26995,9 +26987,9 @@
       </c>
       <c r="Q486" s="19"/>
     </row>
-    <row r="487" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B487" s="19"/>
       <c r="C487" s="19"/>
@@ -27022,9 +27014,9 @@
       </c>
       <c r="Q487" s="19"/>
     </row>
-    <row r="488" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B488" s="19"/>
       <c r="C488" s="19"/>
@@ -27049,9 +27041,9 @@
       </c>
       <c r="Q488" s="19"/>
     </row>
-    <row r="489" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B489" s="19"/>
       <c r="C489" s="19"/>
@@ -27076,9 +27068,9 @@
       </c>
       <c r="Q489" s="19"/>
     </row>
-    <row r="490" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B490" s="19"/>
       <c r="C490" s="19"/>
@@ -27103,9 +27095,9 @@
       </c>
       <c r="Q490" s="19"/>
     </row>
-    <row r="491" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B491" s="19"/>
       <c r="C491" s="19"/>
@@ -27130,9 +27122,9 @@
       </c>
       <c r="Q491" s="19"/>
     </row>
-    <row r="492" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B492" s="19"/>
       <c r="C492" s="19"/>
@@ -27157,9 +27149,9 @@
       </c>
       <c r="Q492" s="19"/>
     </row>
-    <row r="493" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B493" s="19"/>
       <c r="C493" s="19"/>
@@ -27184,9 +27176,9 @@
       </c>
       <c r="Q493" s="19"/>
     </row>
-    <row r="494" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B494" s="19"/>
       <c r="C494" s="19"/>
@@ -27211,9 +27203,9 @@
       </c>
       <c r="Q494" s="19"/>
     </row>
-    <row r="495" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B495" s="19"/>
       <c r="C495" s="19"/>
@@ -27238,9 +27230,9 @@
       </c>
       <c r="Q495" s="19"/>
     </row>
-    <row r="496" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B496" s="19"/>
       <c r="C496" s="19"/>
@@ -27265,9 +27257,9 @@
       </c>
       <c r="Q496" s="19"/>
     </row>
-    <row r="497" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B497" s="19"/>
       <c r="C497" s="19"/>
@@ -27292,9 +27284,9 @@
       </c>
       <c r="Q497" s="19"/>
     </row>
-    <row r="498" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B498" s="19"/>
       <c r="C498" s="19"/>
@@ -27319,9 +27311,9 @@
       </c>
       <c r="Q498" s="19"/>
     </row>
-    <row r="499" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B499" s="19"/>
       <c r="C499" s="19"/>
@@ -27346,9 +27338,9 @@
       </c>
       <c r="Q499" s="19"/>
     </row>
-    <row r="500" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
@@ -27373,9 +27365,9 @@
       </c>
       <c r="Q500" s="19"/>
     </row>
-    <row r="501" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B501" s="19"/>
       <c r="C501" s="19"/>
@@ -27400,9 +27392,9 @@
       </c>
       <c r="Q501" s="19"/>
     </row>
-    <row r="502" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B502" s="19"/>
       <c r="C502" s="19"/>
@@ -27427,9 +27419,9 @@
       </c>
       <c r="Q502" s="19"/>
     </row>
-    <row r="503" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B503" s="19"/>
       <c r="C503" s="19"/>
@@ -27454,9 +27446,9 @@
       </c>
       <c r="Q503" s="19"/>
     </row>
-    <row r="504" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B504" s="19"/>
       <c r="C504" s="19"/>
@@ -27481,9 +27473,9 @@
       </c>
       <c r="Q504" s="19"/>
     </row>
-    <row r="505" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B505" s="19"/>
       <c r="C505" s="19"/>
@@ -27508,9 +27500,9 @@
       </c>
       <c r="Q505" s="19"/>
     </row>
-    <row r="506" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B506" s="19"/>
       <c r="C506" s="19"/>
@@ -27535,9 +27527,9 @@
       </c>
       <c r="Q506" s="19"/>
     </row>
-    <row r="507" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B507" s="19"/>
       <c r="C507" s="19"/>
@@ -27562,9 +27554,9 @@
       </c>
       <c r="Q507" s="19"/>
     </row>
-    <row r="508" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B508" s="19"/>
       <c r="C508" s="19"/>
@@ -27589,9 +27581,9 @@
       </c>
       <c r="Q508" s="19"/>
     </row>
-    <row r="509" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B509" s="19"/>
       <c r="C509" s="19"/>
@@ -27616,9 +27608,9 @@
       </c>
       <c r="Q509" s="19"/>
     </row>
-    <row r="510" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B510" s="19"/>
       <c r="C510" s="19"/>
@@ -27643,9 +27635,9 @@
       </c>
       <c r="Q510" s="19"/>
     </row>
-    <row r="511" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B511" s="19"/>
       <c r="C511" s="19"/>
@@ -27670,9 +27662,9 @@
       </c>
       <c r="Q511" s="19"/>
     </row>
-    <row r="512" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B512" s="19"/>
       <c r="C512" s="19"/>
@@ -27697,9 +27689,9 @@
       </c>
       <c r="Q512" s="19"/>
     </row>
-    <row r="513" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B513" s="19"/>
       <c r="C513" s="19"/>
@@ -27724,9 +27716,9 @@
       </c>
       <c r="Q513" s="19"/>
     </row>
-    <row r="514" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B514" s="19"/>
       <c r="C514" s="19"/>
@@ -27751,9 +27743,9 @@
       </c>
       <c r="Q514" s="19"/>
     </row>
-    <row r="515" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B515" s="19"/>
       <c r="C515" s="19"/>
@@ -27778,9 +27770,9 @@
       </c>
       <c r="Q515" s="19"/>
     </row>
-    <row r="516" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B516" s="19"/>
       <c r="C516" s="19"/>
@@ -27805,9 +27797,9 @@
       </c>
       <c r="Q516" s="19"/>
     </row>
-    <row r="517" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B517" s="19"/>
       <c r="C517" s="19"/>
@@ -27832,9 +27824,9 @@
       </c>
       <c r="Q517" s="19"/>
     </row>
-    <row r="518" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B518" s="19"/>
       <c r="C518" s="19"/>
@@ -27859,9 +27851,9 @@
       </c>
       <c r="Q518" s="19"/>
     </row>
-    <row r="519" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B519" s="19"/>
       <c r="C519" s="19"/>
@@ -27886,9 +27878,9 @@
       </c>
       <c r="Q519" s="19"/>
     </row>
-    <row r="520" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B520" s="19"/>
       <c r="C520" s="19"/>
@@ -27913,9 +27905,9 @@
       </c>
       <c r="Q520" s="19"/>
     </row>
-    <row r="521" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B521" s="19"/>
       <c r="C521" s="19"/>
@@ -27940,9 +27932,9 @@
       </c>
       <c r="Q521" s="19"/>
     </row>
-    <row r="522" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B522" s="19"/>
       <c r="C522" s="19"/>
@@ -27967,9 +27959,9 @@
       </c>
       <c r="Q522" s="19"/>
     </row>
-    <row r="523" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B523" s="19"/>
       <c r="C523" s="19"/>
@@ -27994,9 +27986,9 @@
       </c>
       <c r="Q523" s="19"/>
     </row>
-    <row r="524" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B524" s="19"/>
       <c r="C524" s="19"/>
@@ -28021,9 +28013,9 @@
       </c>
       <c r="Q524" s="19"/>
     </row>
-    <row r="525" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
@@ -28048,9 +28040,9 @@
       </c>
       <c r="Q525" s="19"/>
     </row>
-    <row r="526" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B526" s="19"/>
       <c r="C526" s="19"/>
@@ -28075,9 +28067,9 @@
       </c>
       <c r="Q526" s="19"/>
     </row>
-    <row r="527" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B527" s="19"/>
       <c r="C527" s="19"/>
@@ -28102,9 +28094,9 @@
       </c>
       <c r="Q527" s="19"/>
     </row>
-    <row r="528" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B528" s="19"/>
       <c r="C528" s="19"/>
@@ -28129,9 +28121,9 @@
       </c>
       <c r="Q528" s="19"/>
     </row>
-    <row r="529" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B529" s="19"/>
       <c r="C529" s="19"/>
@@ -28156,9 +28148,9 @@
       </c>
       <c r="Q529" s="19"/>
     </row>
-    <row r="530" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B530" s="19"/>
       <c r="C530" s="19"/>
@@ -28183,9 +28175,9 @@
       </c>
       <c r="Q530" s="19"/>
     </row>
-    <row r="531" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B531" s="19"/>
       <c r="C531" s="19"/>
@@ -28210,9 +28202,9 @@
       </c>
       <c r="Q531" s="19"/>
     </row>
-    <row r="532" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B532" s="19"/>
       <c r="C532" s="19"/>
@@ -28237,9 +28229,9 @@
       </c>
       <c r="Q532" s="19"/>
     </row>
-    <row r="533" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B533" s="19"/>
       <c r="C533" s="19"/>
@@ -28264,9 +28256,9 @@
       </c>
       <c r="Q533" s="19"/>
     </row>
-    <row r="534" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B534" s="19"/>
       <c r="C534" s="19"/>
@@ -28291,9 +28283,9 @@
       </c>
       <c r="Q534" s="19"/>
     </row>
-    <row r="535" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B535" s="19"/>
       <c r="C535" s="19"/>
@@ -28318,9 +28310,9 @@
       </c>
       <c r="Q535" s="19"/>
     </row>
-    <row r="536" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B536" s="19"/>
       <c r="C536" s="19"/>
@@ -28345,9 +28337,9 @@
       </c>
       <c r="Q536" s="19"/>
     </row>
-    <row r="537" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B537" s="19"/>
       <c r="C537" s="19"/>
@@ -28372,9 +28364,9 @@
       </c>
       <c r="Q537" s="19"/>
     </row>
-    <row r="538" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B538" s="19"/>
       <c r="C538" s="19"/>
@@ -28399,9 +28391,9 @@
       </c>
       <c r="Q538" s="19"/>
     </row>
-    <row r="539" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B539" s="19"/>
       <c r="C539" s="19"/>
@@ -28426,9 +28418,9 @@
       </c>
       <c r="Q539" s="19"/>
     </row>
-    <row r="540" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B540" s="19"/>
       <c r="C540" s="19"/>
@@ -28453,9 +28445,9 @@
       </c>
       <c r="Q540" s="19"/>
     </row>
-    <row r="541" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B541" s="19"/>
       <c r="C541" s="19"/>
@@ -28480,9 +28472,9 @@
       </c>
       <c r="Q541" s="19"/>
     </row>
-    <row r="542" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B542" s="19"/>
       <c r="C542" s="19"/>
@@ -28507,9 +28499,9 @@
       </c>
       <c r="Q542" s="19"/>
     </row>
-    <row r="543" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B543" s="19"/>
       <c r="C543" s="19"/>
@@ -28534,9 +28526,9 @@
       </c>
       <c r="Q543" s="19"/>
     </row>
-    <row r="544" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B544" s="19"/>
       <c r="C544" s="19"/>
@@ -28561,9 +28553,9 @@
       </c>
       <c r="Q544" s="19"/>
     </row>
-    <row r="545" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B545" s="19"/>
       <c r="C545" s="19"/>
@@ -28588,9 +28580,9 @@
       </c>
       <c r="Q545" s="19"/>
     </row>
-    <row r="546" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B546" s="19"/>
       <c r="C546" s="19"/>
@@ -28615,9 +28607,9 @@
       </c>
       <c r="Q546" s="19"/>
     </row>
-    <row r="547" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B547" s="19"/>
       <c r="C547" s="19"/>
@@ -28642,9 +28634,9 @@
       </c>
       <c r="Q547" s="19"/>
     </row>
-    <row r="548" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B548" s="19"/>
       <c r="C548" s="19"/>
@@ -28669,9 +28661,9 @@
       </c>
       <c r="Q548" s="19"/>
     </row>
-    <row r="549" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B549" s="19"/>
       <c r="C549" s="19"/>
@@ -28696,9 +28688,9 @@
       </c>
       <c r="Q549" s="19"/>
     </row>
-    <row r="550" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B550" s="19"/>
       <c r="C550" s="19"/>
@@ -28723,9 +28715,9 @@
       </c>
       <c r="Q550" s="19"/>
     </row>
-    <row r="551" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B551" s="19"/>
       <c r="C551" s="19"/>
@@ -28750,9 +28742,9 @@
       </c>
       <c r="Q551" s="19"/>
     </row>
-    <row r="552" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B552" s="19"/>
       <c r="C552" s="19"/>
@@ -28777,9 +28769,9 @@
       </c>
       <c r="Q552" s="19"/>
     </row>
-    <row r="553" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B553" s="19"/>
       <c r="C553" s="19"/>
@@ -28804,9 +28796,9 @@
       </c>
       <c r="Q553" s="19"/>
     </row>
-    <row r="554" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B554" s="19"/>
       <c r="C554" s="19"/>
@@ -28831,9 +28823,9 @@
       </c>
       <c r="Q554" s="19"/>
     </row>
-    <row r="555" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B555" s="19"/>
       <c r="C555" s="19"/>
@@ -28858,9 +28850,9 @@
       </c>
       <c r="Q555" s="19"/>
     </row>
-    <row r="556" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B556" s="19"/>
       <c r="C556" s="19"/>
@@ -28885,9 +28877,9 @@
       </c>
       <c r="Q556" s="19"/>
     </row>
-    <row r="557" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B557" s="19"/>
       <c r="C557" s="19"/>
@@ -28912,9 +28904,9 @@
       </c>
       <c r="Q557" s="19"/>
     </row>
-    <row r="558" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B558" s="19"/>
       <c r="C558" s="19"/>
@@ -28939,9 +28931,9 @@
       </c>
       <c r="Q558" s="19"/>
     </row>
-    <row r="559" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B559" s="19"/>
       <c r="C559" s="19"/>
@@ -28966,9 +28958,9 @@
       </c>
       <c r="Q559" s="19"/>
     </row>
-    <row r="560" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B560" s="19"/>
       <c r="C560" s="19"/>
@@ -28993,9 +28985,9 @@
       </c>
       <c r="Q560" s="19"/>
     </row>
-    <row r="561" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B561" s="19"/>
       <c r="C561" s="19"/>
@@ -29020,9 +29012,9 @@
       </c>
       <c r="Q561" s="19"/>
     </row>
-    <row r="562" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B562" s="19"/>
       <c r="C562" s="19"/>
@@ -29047,9 +29039,9 @@
       </c>
       <c r="Q562" s="19"/>
     </row>
-    <row r="563" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B563" s="19"/>
       <c r="C563" s="19"/>
@@ -29074,9 +29066,9 @@
       </c>
       <c r="Q563" s="19"/>
     </row>
-    <row r="564" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B564" s="19"/>
       <c r="C564" s="19"/>
@@ -29101,9 +29093,9 @@
       </c>
       <c r="Q564" s="19"/>
     </row>
-    <row r="565" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B565" s="19"/>
       <c r="C565" s="19"/>
@@ -29128,9 +29120,9 @@
       </c>
       <c r="Q565" s="19"/>
     </row>
-    <row r="566" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B566" s="19"/>
       <c r="C566" s="19"/>
@@ -29155,9 +29147,9 @@
       </c>
       <c r="Q566" s="19"/>
     </row>
-    <row r="567" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B567" s="19"/>
       <c r="C567" s="19"/>
@@ -29182,9 +29174,9 @@
       </c>
       <c r="Q567" s="19"/>
     </row>
-    <row r="568" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B568" s="19"/>
       <c r="C568" s="19"/>
@@ -29209,9 +29201,9 @@
       </c>
       <c r="Q568" s="19"/>
     </row>
-    <row r="569" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B569" s="19"/>
       <c r="C569" s="19"/>
@@ -29236,9 +29228,9 @@
       </c>
       <c r="Q569" s="19"/>
     </row>
-    <row r="570" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B570" s="19"/>
       <c r="C570" s="19"/>
@@ -29263,9 +29255,9 @@
       </c>
       <c r="Q570" s="19"/>
     </row>
-    <row r="571" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B571" s="19"/>
       <c r="C571" s="19"/>
@@ -29290,9 +29282,9 @@
       </c>
       <c r="Q571" s="19"/>
     </row>
-    <row r="572" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B572" s="19"/>
       <c r="C572" s="19"/>
@@ -29317,9 +29309,9 @@
       </c>
       <c r="Q572" s="19"/>
     </row>
-    <row r="573" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B573" s="19"/>
       <c r="C573" s="19"/>
@@ -29344,9 +29336,9 @@
       </c>
       <c r="Q573" s="19"/>
     </row>
-    <row r="574" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B574" s="19"/>
       <c r="C574" s="19"/>
@@ -29371,9 +29363,9 @@
       </c>
       <c r="Q574" s="19"/>
     </row>
-    <row r="575" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B575" s="19"/>
       <c r="C575" s="19"/>
@@ -29398,9 +29390,9 @@
       </c>
       <c r="Q575" s="19"/>
     </row>
-    <row r="576" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B576" s="19"/>
       <c r="C576" s="19"/>
@@ -29425,9 +29417,9 @@
       </c>
       <c r="Q576" s="19"/>
     </row>
-    <row r="577" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B577" s="19"/>
       <c r="C577" s="19"/>
@@ -29452,9 +29444,9 @@
       </c>
       <c r="Q577" s="19"/>
     </row>
-    <row r="578" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B578" s="19"/>
       <c r="C578" s="19"/>
@@ -29479,9 +29471,9 @@
       </c>
       <c r="Q578" s="19"/>
     </row>
-    <row r="579" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B579" s="19"/>
       <c r="C579" s="19"/>
@@ -29506,9 +29498,9 @@
       </c>
       <c r="Q579" s="19"/>
     </row>
-    <row r="580" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B580" s="19"/>
       <c r="C580" s="19"/>
@@ -29533,9 +29525,9 @@
       </c>
       <c r="Q580" s="19"/>
     </row>
-    <row r="581" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B581" s="19"/>
       <c r="C581" s="19"/>
@@ -29560,9 +29552,9 @@
       </c>
       <c r="Q581" s="19"/>
     </row>
-    <row r="582" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B582" s="19"/>
       <c r="C582" s="19"/>
@@ -29587,9 +29579,9 @@
       </c>
       <c r="Q582" s="19"/>
     </row>
-    <row r="583" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B583" s="19"/>
       <c r="C583" s="19"/>
@@ -29614,9 +29606,9 @@
       </c>
       <c r="Q583" s="19"/>
     </row>
-    <row r="584" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B584" s="19"/>
       <c r="C584" s="19"/>
@@ -29641,9 +29633,9 @@
       </c>
       <c r="Q584" s="19"/>
     </row>
-    <row r="585" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B585" s="19"/>
       <c r="C585" s="19"/>
@@ -29668,9 +29660,9 @@
       </c>
       <c r="Q585" s="19"/>
     </row>
-    <row r="586" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B586" s="19"/>
       <c r="C586" s="19"/>
@@ -29695,9 +29687,9 @@
       </c>
       <c r="Q586" s="19"/>
     </row>
-    <row r="587" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B587" s="19"/>
       <c r="C587" s="19"/>
@@ -29722,9 +29714,9 @@
       </c>
       <c r="Q587" s="19"/>
     </row>
-    <row r="588" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B588" s="19"/>
       <c r="C588" s="19"/>
@@ -29749,9 +29741,9 @@
       </c>
       <c r="Q588" s="19"/>
     </row>
-    <row r="589" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B589" s="19"/>
       <c r="C589" s="19"/>
@@ -29776,9 +29768,9 @@
       </c>
       <c r="Q589" s="19"/>
     </row>
-    <row r="590" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B590" s="19"/>
       <c r="C590" s="19"/>
@@ -29803,9 +29795,9 @@
       </c>
       <c r="Q590" s="19"/>
     </row>
-    <row r="591" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B591" s="19"/>
       <c r="C591" s="19"/>
@@ -29830,9 +29822,9 @@
       </c>
       <c r="Q591" s="19"/>
     </row>
-    <row r="592" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B592" s="19"/>
       <c r="C592" s="19"/>
@@ -29857,9 +29849,9 @@
       </c>
       <c r="Q592" s="19"/>
     </row>
-    <row r="593" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B593" s="19"/>
       <c r="C593" s="19"/>
@@ -29884,9 +29876,9 @@
       </c>
       <c r="Q593" s="19"/>
     </row>
-    <row r="594" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B594" s="19"/>
       <c r="C594" s="19"/>
@@ -29911,9 +29903,9 @@
       </c>
       <c r="Q594" s="19"/>
     </row>
-    <row r="595" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B595" s="19"/>
       <c r="C595" s="19"/>
@@ -29938,9 +29930,9 @@
       </c>
       <c r="Q595" s="19"/>
     </row>
-    <row r="596" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B596" s="19"/>
       <c r="C596" s="19"/>
@@ -29965,9 +29957,9 @@
       </c>
       <c r="Q596" s="19"/>
     </row>
-    <row r="597" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B597" s="19"/>
       <c r="C597" s="19"/>
@@ -29992,9 +29984,9 @@
       </c>
       <c r="Q597" s="19"/>
     </row>
-    <row r="598" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B598" s="19"/>
       <c r="C598" s="19"/>
@@ -30019,9 +30011,9 @@
       </c>
       <c r="Q598" s="19"/>
     </row>
-    <row r="599" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B599" s="19"/>
       <c r="C599" s="19"/>
@@ -30046,9 +30038,9 @@
       </c>
       <c r="Q599" s="19"/>
     </row>
-    <row r="600" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B600" s="19"/>
       <c r="C600" s="19"/>
@@ -30073,9 +30065,9 @@
       </c>
       <c r="Q600" s="19"/>
     </row>
-    <row r="601" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B601" s="19"/>
       <c r="C601" s="19"/>
@@ -30100,9 +30092,9 @@
       </c>
       <c r="Q601" s="19"/>
     </row>
-    <row r="602" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B602" s="19"/>
       <c r="C602" s="19"/>
@@ -30127,9 +30119,9 @@
       </c>
       <c r="Q602" s="19"/>
     </row>
-    <row r="603" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B603" s="19"/>
       <c r="C603" s="19"/>
@@ -30154,9 +30146,9 @@
       </c>
       <c r="Q603" s="19"/>
     </row>
-    <row r="604" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B604" s="19"/>
       <c r="C604" s="19"/>
@@ -30181,9 +30173,9 @@
       </c>
       <c r="Q604" s="19"/>
     </row>
-    <row r="605" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B605" s="19"/>
       <c r="C605" s="19"/>
@@ -30208,9 +30200,9 @@
       </c>
       <c r="Q605" s="19"/>
     </row>
-    <row r="606" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B606" s="19"/>
       <c r="C606" s="19"/>
@@ -30235,9 +30227,9 @@
       </c>
       <c r="Q606" s="19"/>
     </row>
-    <row r="607" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B607" s="19"/>
       <c r="C607" s="19"/>
@@ -30262,9 +30254,9 @@
       </c>
       <c r="Q607" s="19"/>
     </row>
-    <row r="608" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B608" s="19"/>
       <c r="C608" s="19"/>
@@ -30289,9 +30281,9 @@
       </c>
       <c r="Q608" s="19"/>
     </row>
-    <row r="609" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B609" s="19"/>
       <c r="C609" s="19"/>
@@ -30316,9 +30308,9 @@
       </c>
       <c r="Q609" s="19"/>
     </row>
-    <row r="610" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B610" s="19"/>
       <c r="C610" s="19"/>
@@ -30343,9 +30335,9 @@
       </c>
       <c r="Q610" s="19"/>
     </row>
-    <row r="611" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B611" s="19"/>
       <c r="C611" s="19"/>
@@ -30370,9 +30362,9 @@
       </c>
       <c r="Q611" s="19"/>
     </row>
-    <row r="612" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B612" s="19"/>
       <c r="C612" s="19"/>
@@ -30397,9 +30389,9 @@
       </c>
       <c r="Q612" s="19"/>
     </row>
-    <row r="613" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B613" s="19"/>
       <c r="C613" s="19"/>
@@ -30424,9 +30416,9 @@
       </c>
       <c r="Q613" s="19"/>
     </row>
-    <row r="614" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B614" s="19"/>
       <c r="C614" s="19"/>
@@ -30451,9 +30443,9 @@
       </c>
       <c r="Q614" s="19"/>
     </row>
-    <row r="615" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B615" s="19"/>
       <c r="C615" s="19"/>
@@ -30478,9 +30470,9 @@
       </c>
       <c r="Q615" s="19"/>
     </row>
-    <row r="616" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B616" s="19"/>
       <c r="C616" s="19"/>
@@ -30505,9 +30497,9 @@
       </c>
       <c r="Q616" s="19"/>
     </row>
-    <row r="617" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B617" s="19"/>
       <c r="C617" s="19"/>
@@ -30532,9 +30524,9 @@
       </c>
       <c r="Q617" s="19"/>
     </row>
-    <row r="618" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B618" s="19"/>
       <c r="C618" s="19"/>
@@ -30559,9 +30551,9 @@
       </c>
       <c r="Q618" s="19"/>
     </row>
-    <row r="619" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B619" s="19"/>
       <c r="C619" s="19"/>
@@ -30586,9 +30578,9 @@
       </c>
       <c r="Q619" s="19"/>
     </row>
-    <row r="620" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B620" s="19"/>
       <c r="C620" s="19"/>
@@ -30613,9 +30605,9 @@
       </c>
       <c r="Q620" s="19"/>
     </row>
-    <row r="621" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B621" s="19"/>
       <c r="C621" s="19"/>
@@ -30640,9 +30632,9 @@
       </c>
       <c r="Q621" s="19"/>
     </row>
-    <row r="622" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B622" s="19"/>
       <c r="C622" s="19"/>
@@ -30667,9 +30659,9 @@
       </c>
       <c r="Q622" s="19"/>
     </row>
-    <row r="623" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B623" s="19"/>
       <c r="C623" s="19"/>
@@ -30694,9 +30686,9 @@
       </c>
       <c r="Q623" s="19"/>
     </row>
-    <row r="624" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B624" s="19"/>
       <c r="C624" s="19"/>
@@ -30721,9 +30713,9 @@
       </c>
       <c r="Q624" s="19"/>
     </row>
-    <row r="625" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B625" s="19"/>
       <c r="C625" s="19"/>
@@ -30748,9 +30740,9 @@
       </c>
       <c r="Q625" s="19"/>
     </row>
-    <row r="626" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B626" s="19"/>
       <c r="C626" s="19"/>
@@ -30775,9 +30767,9 @@
       </c>
       <c r="Q626" s="19"/>
     </row>
-    <row r="627" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B627" s="19"/>
       <c r="C627" s="19"/>
@@ -30802,9 +30794,9 @@
       </c>
       <c r="Q627" s="19"/>
     </row>
-    <row r="628" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B628" s="19"/>
       <c r="C628" s="19"/>
@@ -30829,9 +30821,9 @@
       </c>
       <c r="Q628" s="19"/>
     </row>
-    <row r="629" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B629" s="19"/>
       <c r="C629" s="19"/>
@@ -30856,9 +30848,9 @@
       </c>
       <c r="Q629" s="19"/>
     </row>
-    <row r="630" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B630" s="19"/>
       <c r="C630" s="19"/>
@@ -30883,9 +30875,9 @@
       </c>
       <c r="Q630" s="19"/>
     </row>
-    <row r="631" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B631" s="19"/>
       <c r="C631" s="19"/>
@@ -30910,9 +30902,9 @@
       </c>
       <c r="Q631" s="19"/>
     </row>
-    <row r="632" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B632" s="19"/>
       <c r="C632" s="19"/>
@@ -30937,9 +30929,9 @@
       </c>
       <c r="Q632" s="19"/>
     </row>
-    <row r="633" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B633" s="19"/>
       <c r="C633" s="19"/>
@@ -30964,9 +30956,9 @@
       </c>
       <c r="Q633" s="19"/>
     </row>
-    <row r="634" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B634" s="19"/>
       <c r="C634" s="19"/>
@@ -30991,9 +30983,9 @@
       </c>
       <c r="Q634" s="19"/>
     </row>
-    <row r="635" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B635" s="19"/>
       <c r="C635" s="19"/>
@@ -31018,9 +31010,9 @@
       </c>
       <c r="Q635" s="19"/>
     </row>
-    <row r="636" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B636" s="19"/>
       <c r="C636" s="19"/>
@@ -31045,9 +31037,9 @@
       </c>
       <c r="Q636" s="19"/>
     </row>
-    <row r="637" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B637" s="19"/>
       <c r="C637" s="19"/>
@@ -31072,9 +31064,9 @@
       </c>
       <c r="Q637" s="19"/>
     </row>
-    <row r="638" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B638" s="19"/>
       <c r="C638" s="19"/>
@@ -31099,9 +31091,9 @@
       </c>
       <c r="Q638" s="19"/>
     </row>
-    <row r="639" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B639" s="19"/>
       <c r="C639" s="19"/>
@@ -31126,9 +31118,9 @@
       </c>
       <c r="Q639" s="19"/>
     </row>
-    <row r="640" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B640" s="19"/>
       <c r="C640" s="19"/>
@@ -31153,9 +31145,9 @@
       </c>
       <c r="Q640" s="19"/>
     </row>
-    <row r="641" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B641" s="19"/>
       <c r="C641" s="19"/>
@@ -31180,9 +31172,9 @@
       </c>
       <c r="Q641" s="19"/>
     </row>
-    <row r="642" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B642" s="19"/>
       <c r="C642" s="19"/>
@@ -31207,9 +31199,9 @@
       </c>
       <c r="Q642" s="19"/>
     </row>
-    <row r="643" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B643" s="19"/>
       <c r="C643" s="19"/>
@@ -31234,9 +31226,9 @@
       </c>
       <c r="Q643" s="19"/>
     </row>
-    <row r="644" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B644" s="19"/>
       <c r="C644" s="19"/>
@@ -31261,9 +31253,9 @@
       </c>
       <c r="Q644" s="19"/>
     </row>
-    <row r="645" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B645" s="19"/>
       <c r="C645" s="19"/>
@@ -31288,9 +31280,9 @@
       </c>
       <c r="Q645" s="19"/>
     </row>
-    <row r="646" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B646" s="19"/>
       <c r="C646" s="19"/>
@@ -31315,9 +31307,9 @@
       </c>
       <c r="Q646" s="19"/>
     </row>
-    <row r="647" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B647" s="19"/>
       <c r="C647" s="19"/>
@@ -31342,9 +31334,9 @@
       </c>
       <c r="Q647" s="19"/>
     </row>
-    <row r="648" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B648" s="19"/>
       <c r="C648" s="19"/>
@@ -31369,9 +31361,9 @@
       </c>
       <c r="Q648" s="19"/>
     </row>
-    <row r="649" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B649" s="19"/>
       <c r="C649" s="19"/>
@@ -31396,9 +31388,9 @@
       </c>
       <c r="Q649" s="19"/>
     </row>
-    <row r="650" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B650" s="19"/>
       <c r="C650" s="19"/>
@@ -31423,9 +31415,9 @@
       </c>
       <c r="Q650" s="19"/>
     </row>
-    <row r="651" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B651" s="19"/>
       <c r="C651" s="19"/>
@@ -31450,9 +31442,9 @@
       </c>
       <c r="Q651" s="19"/>
     </row>
-    <row r="652" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B652" s="19"/>
       <c r="C652" s="19"/>
@@ -31477,9 +31469,9 @@
       </c>
       <c r="Q652" s="19"/>
     </row>
-    <row r="653" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B653" s="19"/>
       <c r="C653" s="19"/>
@@ -31504,9 +31496,9 @@
       </c>
       <c r="Q653" s="19"/>
     </row>
-    <row r="654" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B654" s="19"/>
       <c r="C654" s="19"/>
@@ -31531,9 +31523,9 @@
       </c>
       <c r="Q654" s="19"/>
     </row>
-    <row r="655" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B655" s="19"/>
       <c r="C655" s="19"/>
@@ -31558,9 +31550,9 @@
       </c>
       <c r="Q655" s="19"/>
     </row>
-    <row r="656" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B656" s="19"/>
       <c r="C656" s="19"/>
@@ -31585,9 +31577,9 @@
       </c>
       <c r="Q656" s="19"/>
     </row>
-    <row r="657" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B657" s="19"/>
       <c r="C657" s="19"/>
@@ -31612,9 +31604,9 @@
       </c>
       <c r="Q657" s="19"/>
     </row>
-    <row r="658" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B658" s="19"/>
       <c r="C658" s="19"/>
@@ -31639,9 +31631,9 @@
       </c>
       <c r="Q658" s="19"/>
     </row>
-    <row r="659" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B659" s="19"/>
       <c r="C659" s="19"/>
@@ -31666,9 +31658,9 @@
       </c>
       <c r="Q659" s="19"/>
     </row>
-    <row r="660" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B660" s="19"/>
       <c r="C660" s="19"/>
@@ -31693,9 +31685,9 @@
       </c>
       <c r="Q660" s="19"/>
     </row>
-    <row r="661" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B661" s="19"/>
       <c r="C661" s="19"/>
@@ -31720,9 +31712,9 @@
       </c>
       <c r="Q661" s="19"/>
     </row>
-    <row r="662" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B662" s="19"/>
       <c r="C662" s="19"/>
@@ -31747,9 +31739,9 @@
       </c>
       <c r="Q662" s="19"/>
     </row>
-    <row r="663" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B663" s="19"/>
       <c r="C663" s="19"/>
@@ -31774,9 +31766,9 @@
       </c>
       <c r="Q663" s="19"/>
     </row>
-    <row r="664" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B664" s="19"/>
       <c r="C664" s="19"/>
@@ -31801,9 +31793,9 @@
       </c>
       <c r="Q664" s="19"/>
     </row>
-    <row r="665" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B665" s="19"/>
       <c r="C665" s="19"/>
@@ -31828,9 +31820,9 @@
       </c>
       <c r="Q665" s="19"/>
     </row>
-    <row r="666" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B666" s="19"/>
       <c r="C666" s="19"/>
@@ -31855,9 +31847,9 @@
       </c>
       <c r="Q666" s="19"/>
     </row>
-    <row r="667" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B667" s="19"/>
       <c r="C667" s="19"/>
@@ -31882,9 +31874,9 @@
       </c>
       <c r="Q667" s="19"/>
     </row>
-    <row r="668" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B668" s="19"/>
       <c r="C668" s="19"/>
@@ -31909,9 +31901,9 @@
       </c>
       <c r="Q668" s="19"/>
     </row>
-    <row r="669" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B669" s="19"/>
       <c r="C669" s="19"/>
@@ -31936,9 +31928,9 @@
       </c>
       <c r="Q669" s="19"/>
     </row>
-    <row r="670" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B670" s="19"/>
       <c r="C670" s="19"/>
@@ -31963,9 +31955,9 @@
       </c>
       <c r="Q670" s="19"/>
     </row>
-    <row r="671" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B671" s="19"/>
       <c r="C671" s="19"/>
@@ -31990,9 +31982,9 @@
       </c>
       <c r="Q671" s="19"/>
     </row>
-    <row r="672" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B672" s="19"/>
       <c r="C672" s="19"/>
@@ -32017,9 +32009,9 @@
       </c>
       <c r="Q672" s="19"/>
     </row>
-    <row r="673" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B673" s="19"/>
       <c r="C673" s="19"/>
@@ -32044,9 +32036,9 @@
       </c>
       <c r="Q673" s="19"/>
     </row>
-    <row r="674" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B674" s="19"/>
       <c r="C674" s="19"/>
@@ -32071,9 +32063,9 @@
       </c>
       <c r="Q674" s="19"/>
     </row>
-    <row r="675" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B675" s="19"/>
       <c r="C675" s="19"/>
@@ -32098,9 +32090,9 @@
       </c>
       <c r="Q675" s="19"/>
     </row>
-    <row r="676" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B676" s="19"/>
       <c r="C676" s="19"/>
@@ -32125,9 +32117,9 @@
       </c>
       <c r="Q676" s="19"/>
     </row>
-    <row r="677" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B677" s="19"/>
       <c r="C677" s="19"/>
@@ -32152,9 +32144,9 @@
       </c>
       <c r="Q677" s="19"/>
     </row>
-    <row r="678" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B678" s="19"/>
       <c r="C678" s="19"/>
@@ -32179,9 +32171,9 @@
       </c>
       <c r="Q678" s="19"/>
     </row>
-    <row r="679" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B679" s="19"/>
       <c r="C679" s="19"/>
@@ -32206,9 +32198,9 @@
       </c>
       <c r="Q679" s="19"/>
     </row>
-    <row r="680" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B680" s="19"/>
       <c r="C680" s="19"/>
@@ -32233,9 +32225,9 @@
       </c>
       <c r="Q680" s="19"/>
     </row>
-    <row r="681" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B681" s="19"/>
       <c r="C681" s="19"/>
@@ -32260,9 +32252,9 @@
       </c>
       <c r="Q681" s="19"/>
     </row>
-    <row r="682" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B682" s="19"/>
       <c r="C682" s="19"/>
@@ -32287,9 +32279,9 @@
       </c>
       <c r="Q682" s="19"/>
     </row>
-    <row r="683" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B683" s="19"/>
       <c r="C683" s="19"/>
@@ -32314,9 +32306,9 @@
       </c>
       <c r="Q683" s="19"/>
     </row>
-    <row r="684" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B684" s="19"/>
       <c r="C684" s="19"/>
@@ -32341,9 +32333,9 @@
       </c>
       <c r="Q684" s="19"/>
     </row>
-    <row r="685" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B685" s="19"/>
       <c r="C685" s="19"/>
@@ -32368,9 +32360,9 @@
       </c>
       <c r="Q685" s="19"/>
     </row>
-    <row r="686" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B686" s="19"/>
       <c r="C686" s="19"/>
@@ -32395,9 +32387,9 @@
       </c>
       <c r="Q686" s="19"/>
     </row>
-    <row r="687" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B687" s="19"/>
       <c r="C687" s="19"/>
@@ -32422,9 +32414,9 @@
       </c>
       <c r="Q687" s="19"/>
     </row>
-    <row r="688" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B688" s="19"/>
       <c r="C688" s="19"/>
@@ -32449,9 +32441,9 @@
       </c>
       <c r="Q688" s="19"/>
     </row>
-    <row r="689" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B689" s="19"/>
       <c r="C689" s="19"/>
@@ -32476,9 +32468,9 @@
       </c>
       <c r="Q689" s="19"/>
     </row>
-    <row r="690" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B690" s="19"/>
       <c r="C690" s="19"/>
@@ -32503,9 +32495,9 @@
       </c>
       <c r="Q690" s="19"/>
     </row>
-    <row r="691" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B691" s="19"/>
       <c r="C691" s="19"/>
@@ -32530,9 +32522,9 @@
       </c>
       <c r="Q691" s="19"/>
     </row>
-    <row r="692" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B692" s="19"/>
       <c r="C692" s="19"/>
@@ -32557,9 +32549,9 @@
       </c>
       <c r="Q692" s="19"/>
     </row>
-    <row r="693" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B693" s="19"/>
       <c r="C693" s="19"/>
@@ -32584,9 +32576,9 @@
       </c>
       <c r="Q693" s="19"/>
     </row>
-    <row r="694" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B694" s="19"/>
       <c r="C694" s="19"/>
@@ -32611,9 +32603,9 @@
       </c>
       <c r="Q694" s="19"/>
     </row>
-    <row r="695" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B695" s="19"/>
       <c r="C695" s="19"/>
@@ -32638,9 +32630,9 @@
       </c>
       <c r="Q695" s="19"/>
     </row>
-    <row r="696" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B696" s="19"/>
       <c r="C696" s="19"/>
@@ -32665,9 +32657,9 @@
       </c>
       <c r="Q696" s="19"/>
     </row>
-    <row r="697" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B697" s="19"/>
       <c r="C697" s="19"/>
@@ -32692,9 +32684,9 @@
       </c>
       <c r="Q697" s="19"/>
     </row>
-    <row r="698" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B698" s="19"/>
       <c r="C698" s="19"/>
@@ -32719,9 +32711,9 @@
       </c>
       <c r="Q698" s="19"/>
     </row>
-    <row r="699" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B699" s="19"/>
       <c r="C699" s="19"/>
@@ -32746,9 +32738,9 @@
       </c>
       <c r="Q699" s="19"/>
     </row>
-    <row r="700" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B700" s="19"/>
       <c r="C700" s="19"/>
@@ -32773,9 +32765,9 @@
       </c>
       <c r="Q700" s="19"/>
     </row>
-    <row r="701" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B701" s="19"/>
       <c r="C701" s="19"/>
@@ -32800,9 +32792,9 @@
       </c>
       <c r="Q701" s="19"/>
     </row>
-    <row r="702" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B702" s="19"/>
       <c r="C702" s="19"/>
@@ -32827,9 +32819,9 @@
       </c>
       <c r="Q702" s="19"/>
     </row>
-    <row r="703" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B703" s="19"/>
       <c r="C703" s="19"/>
@@ -32854,9 +32846,9 @@
       </c>
       <c r="Q703" s="19"/>
     </row>
-    <row r="704" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B704" s="19"/>
       <c r="C704" s="19"/>
@@ -32881,9 +32873,9 @@
       </c>
       <c r="Q704" s="19"/>
     </row>
-    <row r="705" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B705" s="19"/>
       <c r="C705" s="19"/>
@@ -32908,9 +32900,9 @@
       </c>
       <c r="Q705" s="19"/>
     </row>
-    <row r="706" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B706" s="19"/>
       <c r="C706" s="19"/>
@@ -32935,9 +32927,9 @@
       </c>
       <c r="Q706" s="19"/>
     </row>
-    <row r="707" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B707" s="19"/>
       <c r="C707" s="19"/>
@@ -32962,9 +32954,9 @@
       </c>
       <c r="Q707" s="19"/>
     </row>
-    <row r="708" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B708" s="19"/>
       <c r="C708" s="19"/>
@@ -32989,9 +32981,9 @@
       </c>
       <c r="Q708" s="19"/>
     </row>
-    <row r="709" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B709" s="19"/>
       <c r="C709" s="19"/>
@@ -33016,9 +33008,9 @@
       </c>
       <c r="Q709" s="19"/>
     </row>
-    <row r="710" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B710" s="19"/>
       <c r="C710" s="19"/>
@@ -33043,9 +33035,9 @@
       </c>
       <c r="Q710" s="19"/>
     </row>
-    <row r="711" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B711" s="19"/>
       <c r="C711" s="19"/>
@@ -33070,9 +33062,9 @@
       </c>
       <c r="Q711" s="19"/>
     </row>
-    <row r="712" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B712" s="19"/>
       <c r="C712" s="19"/>
@@ -33097,9 +33089,9 @@
       </c>
       <c r="Q712" s="19"/>
     </row>
-    <row r="713" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
@@ -33124,9 +33116,9 @@
       </c>
       <c r="Q713" s="19"/>
     </row>
-    <row r="714" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B714" s="19"/>
       <c r="C714" s="19"/>
@@ -33151,9 +33143,9 @@
       </c>
       <c r="Q714" s="19"/>
     </row>
-    <row r="715" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B715" s="19"/>
       <c r="C715" s="19"/>
@@ -33178,9 +33170,9 @@
       </c>
       <c r="Q715" s="19"/>
     </row>
-    <row r="716" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B716" s="19"/>
       <c r="C716" s="19"/>
@@ -33205,9 +33197,9 @@
       </c>
       <c r="Q716" s="19"/>
     </row>
-    <row r="717" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B717" s="19"/>
       <c r="C717" s="19"/>
@@ -33232,9 +33224,9 @@
       </c>
       <c r="Q717" s="19"/>
     </row>
-    <row r="718" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B718" s="19"/>
       <c r="C718" s="19"/>
@@ -33259,9 +33251,9 @@
       </c>
       <c r="Q718" s="19"/>
     </row>
-    <row r="719" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B719" s="19"/>
       <c r="C719" s="19"/>
@@ -33286,9 +33278,9 @@
       </c>
       <c r="Q719" s="19"/>
     </row>
-    <row r="720" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:17" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B720" s="19"/>
       <c r="C720" s="19"/>
@@ -33313,9 +33305,9 @@
       </c>
       <c r="Q720" s="19"/>
     </row>
-    <row r="721" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B721" s="19"/>
       <c r="C721" s="19"/>
@@ -33340,9 +33332,9 @@
       </c>
       <c r="Q721" s="19"/>
     </row>
-    <row r="722" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B722" s="19"/>
       <c r="C722" s="19"/>
@@ -33367,9 +33359,9 @@
       </c>
       <c r="Q722" s="19"/>
     </row>
-    <row r="723" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B723" s="19"/>
       <c r="C723" s="19"/>
@@ -33394,9 +33386,9 @@
       </c>
       <c r="Q723" s="19"/>
     </row>
-    <row r="724" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B724" s="19"/>
       <c r="C724" s="19"/>
@@ -33421,9 +33413,9 @@
       </c>
       <c r="Q724" s="19"/>
     </row>
-    <row r="725" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B725" s="19"/>
       <c r="C725" s="19"/>
@@ -33448,9 +33440,9 @@
       </c>
       <c r="Q725" s="19"/>
     </row>
-    <row r="726" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B726" s="19"/>
       <c r="C726" s="19"/>
@@ -33475,9 +33467,9 @@
       </c>
       <c r="Q726" s="19"/>
     </row>
-    <row r="727" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B727" s="19"/>
       <c r="C727" s="19"/>
@@ -33502,9 +33494,9 @@
       </c>
       <c r="Q727" s="19"/>
     </row>
-    <row r="728" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B728" s="19"/>
       <c r="C728" s="19"/>
@@ -33529,9 +33521,9 @@
       </c>
       <c r="Q728" s="19"/>
     </row>
-    <row r="729" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B729" s="19"/>
       <c r="C729" s="19"/>
@@ -33556,9 +33548,9 @@
       </c>
       <c r="Q729" s="19"/>
     </row>
-    <row r="730" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B730" s="19"/>
       <c r="C730" s="19"/>
@@ -33583,9 +33575,9 @@
       </c>
       <c r="Q730" s="19"/>
     </row>
-    <row r="731" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B731" s="19"/>
       <c r="C731" s="19"/>
@@ -33610,9 +33602,9 @@
       </c>
       <c r="Q731" s="19"/>
     </row>
-    <row r="732" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B732" s="19"/>
       <c r="C732" s="19"/>
@@ -33637,9 +33629,9 @@
       </c>
       <c r="Q732" s="19"/>
     </row>
-    <row r="733" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:18" s="14" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B733" s="21"/>
       <c r="C733" s="21"/>
@@ -33664,9 +33656,9 @@
       </c>
       <c r="Q733" s="21"/>
     </row>
-    <row r="734" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B734" s="27"/>
       <c r="C734" s="27"/>
@@ -33686,9 +33678,9 @@
       <c r="Q734" s="27"/>
       <c r="R734" s="27"/>
     </row>
-    <row r="735" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B735" s="27"/>
       <c r="C735" s="27"/>
@@ -33708,9 +33700,9 @@
       <c r="Q735" s="27"/>
       <c r="R735" s="27"/>
     </row>
-    <row r="736" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B736" s="27"/>
       <c r="C736" s="27"/>
@@ -33730,9 +33722,9 @@
       <c r="Q736" s="27"/>
       <c r="R736" s="27"/>
     </row>
-    <row r="737" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B737" s="27"/>
       <c r="C737" s="27"/>
@@ -33752,9 +33744,9 @@
       <c r="Q737" s="27"/>
       <c r="R737" s="27"/>
     </row>
-    <row r="738" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B738" s="27"/>
       <c r="C738" s="27"/>
@@ -33774,9 +33766,9 @@
       <c r="Q738" s="27"/>
       <c r="R738" s="27"/>
     </row>
-    <row r="739" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B739" s="27"/>
       <c r="C739" s="27"/>
@@ -33796,9 +33788,9 @@
       <c r="Q739" s="27"/>
       <c r="R739" s="27"/>
     </row>
-    <row r="740" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:18" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B740" s="27"/>
       <c r="C740" s="27"/>
@@ -33818,9 +33810,9 @@
       <c r="Q740" s="27"/>
       <c r="R740" s="27"/>
     </row>
-    <row r="741" spans="1:18" s="14" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:18" s="14" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B741" s="27"/>
       <c r="C741" s="27"/>
@@ -34588,19 +34580,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="4">
         <f>Data!F2</f>
